--- a/ExperimentalResults/rangingDataOneFloor.xlsx
+++ b/ExperimentalResults/rangingDataOneFloor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tori\Documents\Master-Thesis\indoor-positioning-for-bim\ExperimentalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E899EBFB-DAB0-4D2E-A9B7-DA2F28E4A5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122D123C-2F26-4645-9CA6-D15C6C5B09CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -182,27 +182,6 @@
     <t>N used</t>
   </si>
   <si>
-    <t>Old average</t>
-  </si>
-  <si>
-    <t>New average</t>
-  </si>
-  <si>
-    <t>new median</t>
-  </si>
-  <si>
-    <t>new min</t>
-  </si>
-  <si>
-    <t>new max</t>
-  </si>
-  <si>
-    <t>RSS distance OLD n</t>
-  </si>
-  <si>
-    <t>RSS Distance Error Old N</t>
-  </si>
-  <si>
     <t>Error 1.6</t>
   </si>
   <si>
@@ -231,6 +210,18 @@
   </si>
   <si>
     <t>Under 10000</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -362,7 +353,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment horizontal="left"/>
@@ -460,9 +451,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="18">
@@ -7259,7 +7247,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'n estimate'!$M$2:$M$75</c:f>
+              <c:f>'n estimate'!$L$2:$L$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -8179,7 +8167,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'n estimate'!$L$2:$L$75</c:f>
+              <c:f>'n estimate'!$K$2:$K$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -11016,13 +11004,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -11052,13 +11040,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>204787</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>414337</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -11938,9 +11926,9 @@
         <v>1</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="T8" s="36">
+        <v>46</v>
+      </c>
+      <c r="T8" s="35">
         <f>COUNTIFS(L2:L356, "&gt;0",L2:L356,"&lt;1000")/COUNTIF(L2:L356,"&gt;0")</f>
         <v>0.32034632034632032</v>
       </c>
@@ -12006,9 +11994,9 @@
         <v>0</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" s="36">
+        <v>47</v>
+      </c>
+      <c r="T9" s="35">
         <f>COUNTIFS(L2:L356, "&gt;0",L2:L356,"&lt;2000")/COUNTIF(L2:L356,"&gt;0")</f>
         <v>0.52813852813852813</v>
       </c>
@@ -12074,9 +12062,9 @@
         <v>0</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10" s="36">
+        <v>48</v>
+      </c>
+      <c r="T10" s="35">
         <f>COUNTIFS(L2:L356, "&gt;0",L2:L356,"&lt;3000")/COUNTIF(L2:L356,"&gt;0")</f>
         <v>0.63203463203463206</v>
       </c>
@@ -12136,9 +12124,9 @@
         <v>0</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="T11" s="36">
+        <v>49</v>
+      </c>
+      <c r="T11" s="35">
         <f>COUNTIFS(L2:L356, "&gt;0",L2:L356,"&lt;5000")/COUNTIF(L2:L356,"&gt;0")</f>
         <v>0.72294372294372289</v>
       </c>
@@ -12198,9 +12186,9 @@
         <v>1</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="T12" s="36">
+        <v>50</v>
+      </c>
+      <c r="T12" s="35">
         <f>COUNTIFS(L2:L356, "&gt;0",L2:L356,"&lt;10000")/COUNTIF(L2:L356,"&gt;0")</f>
         <v>0.93506493506493504</v>
       </c>
@@ -31445,10 +31433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85166B8-F815-4295-BBE5-0EA6BE48E1E3}">
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31459,28 +31447,26 @@
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="16" customWidth="1"/>
-    <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" customWidth="1"/>
-    <col min="26" max="26" width="24" customWidth="1"/>
-    <col min="30" max="30" width="11.85546875" customWidth="1"/>
-    <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" customWidth="1"/>
+    <col min="29" max="29" width="13" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -31512,55 +31498,49 @@
         <v>9</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" s="32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" s="32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" s="32" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="T1" s="32" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="U1" s="32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="V1" s="32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W1" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X1" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -31592,78 +31572,70 @@
         <f t="shared" ref="J2:J11" si="0">ROUND(SQRT((G2-D2)^2+(H2-E2)^2+(I2-F2)^2),0)</f>
         <v>28668</v>
       </c>
-      <c r="K2" s="34">
-        <f t="shared" ref="K2:K11" si="1">1000*10^((T2-R2)/(10*E$81))</f>
-        <v>2801832.9985237671</v>
+      <c r="K2">
+        <f>-(Q2-S2)/(10*LOG10(J2/1000))</f>
+        <v>2.9504649949281654</v>
       </c>
       <c r="L2">
-        <f>-(R2-T2)/(10*LOG10(J2/1000))</f>
-        <v>2.9504649949281654</v>
+        <f>1000*10^((S2-Q2)/(10*D$81))</f>
+        <v>76151.819141215106</v>
       </c>
       <c r="M2">
-        <f>1000*10^((T2-R2)/(10*D$81))</f>
-        <v>76151.819141215106</v>
+        <v>0</v>
       </c>
       <c r="N2">
+        <f>ROUND(IF(P2,M2-J2,0),1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O11" si="2">ROUND(IF(Q2,N2-J2,0),1)</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>-85</v>
       </c>
-      <c r="S2" t="b">
-        <f>ABS('n estimate'!$O3)-'n estimate'!$P3&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T2">
+      <c r="R2" t="b">
+        <f>ABS('n estimate'!$N3)-'n estimate'!$O3&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>-42</v>
       </c>
-      <c r="U2" s="33">
+      <c r="T2" s="33">
         <v>1.2473015335197626</v>
       </c>
+      <c r="U2">
+        <f t="shared" ref="U2:U11" si="1">AVERAGE($K$2:$K$11)</f>
+        <v>2.2851916131973722</v>
+      </c>
       <c r="V2">
-        <f t="shared" ref="V2:V11" si="3">AVERAGE($L$2:$L$11)</f>
-        <v>2.2851916131973722</v>
+        <f>ABS(J2-L2)</f>
+        <v>47483.819141215106</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W11" si="4">ABS(J2-M2)</f>
-        <v>47483.819141215106</v>
+        <f t="shared" ref="W2:W11" si="2">10^((S2-Q2)/(10*1.6))</f>
+        <v>486.96752516586361</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X11" si="5">10^((T2-R2)/(10*1.6))</f>
-        <v>486.96752516586361</v>
-      </c>
-      <c r="Y2">
-        <f>ABS(J2-X2)</f>
+        <f>ABS(J2-W2)</f>
         <v>28181.032474834137</v>
       </c>
-      <c r="Z2">
-        <f t="shared" ref="Z2:Z11" si="6">ABS(J2-K2)</f>
-        <v>2773164.9985237671</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>49</v>
+      <c r="AB2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="AE2" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG2" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>24</v>
       </c>
@@ -31695,82 +31667,74 @@
         <f t="shared" si="0"/>
         <v>25041</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3">
+        <f>-(Q3-S3)/(10*LOG10(J3/1000))</f>
+        <v>2.7883997771659814</v>
+      </c>
+      <c r="L3">
+        <f>1000*10^((S3-Q3)/(10*D$81))</f>
+        <v>50890.914614191272</v>
+      </c>
+      <c r="M3">
+        <v>26812</v>
+      </c>
+      <c r="N3">
+        <f>ROUND(IF(P3,M3-J3,0),1)</f>
+        <v>1771</v>
+      </c>
+      <c r="O3">
+        <v>1185</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>-81</v>
+      </c>
+      <c r="R3" t="b">
+        <f>ABS('n estimate'!$N7)-'n estimate'!$O7&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>-42</v>
+      </c>
+      <c r="T3" s="33">
+        <v>1.2473015335197626</v>
+      </c>
+      <c r="U3">
         <f t="shared" si="1"/>
-        <v>1338905.5566017176</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L11" si="7">-(R3-T3)/(10*LOG10(J3/1000))</f>
-        <v>2.7883997771659814</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M11" si="8">1000*10^((T3-R3)/(10*D$81))</f>
-        <v>50890.914614191272</v>
-      </c>
-      <c r="N3">
-        <v>26812</v>
-      </c>
-      <c r="O3">
+        <v>2.2851916131973722</v>
+      </c>
+      <c r="V3">
+        <f>ABS(J3-L3)</f>
+        <v>25849.914614191272</v>
+      </c>
+      <c r="W3">
         <f t="shared" si="2"/>
-        <v>1771</v>
-      </c>
-      <c r="P3">
-        <v>1185</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>-81</v>
-      </c>
-      <c r="S3" t="b">
-        <f>ABS('n estimate'!$O7)-'n estimate'!$P7&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>-42</v>
-      </c>
-      <c r="U3" s="33">
-        <v>1.2473015335197626</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="3"/>
-        <v>2.2851916131973722</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="4"/>
-        <v>25849.914614191272</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="5"/>
         <v>273.84196342643634</v>
       </c>
-      <c r="Y3" s="34">
-        <f t="shared" ref="Y3:Y66" si="9">ABS(J3-X3)</f>
+      <c r="X3" s="34">
+        <f>ABS(J3-W3)</f>
         <v>24767.158036573564</v>
       </c>
-      <c r="Z3" s="34">
-        <f t="shared" si="6"/>
-        <v>1313864.5566017176</v>
-      </c>
-      <c r="AD3">
-        <f>ROUND(AVERAGE($W$2:$W$75),0)</f>
+      <c r="AB3">
+        <f>ROUND(AVERAGE($V$2:$V$75),0)</f>
         <v>13832</v>
       </c>
+      <c r="AC3" s="34">
+        <f>ROUND(MEDIAN($V$2:$V$75),0)</f>
+        <v>9156</v>
+      </c>
+      <c r="AD3" s="34">
+        <f>ROUND(MIN($V$2:$V$75),0)</f>
+        <v>38</v>
+      </c>
       <c r="AE3" s="34">
-        <f>ROUND(MEDIAN($W$2:$W$75),0)</f>
-        <v>9156</v>
-      </c>
-      <c r="AF3" s="34">
-        <f>ROUND(MIN($W$2:$W$75),0)</f>
-        <v>38</v>
-      </c>
-      <c r="AG3" s="34">
-        <f>ROUND(MAX($W$2:$W$75),0)</f>
+        <f>ROUND(MAX($V$2:$V$75),0)</f>
         <v>79673</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>164</v>
       </c>
@@ -31802,66 +31766,58 @@
         <f t="shared" si="0"/>
         <v>46394</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4">
+        <f>-(Q4-S4)/(10*LOG10(J4/1000))</f>
+        <v>2.5203097690239793</v>
+      </c>
+      <c r="L4">
+        <f>1000*10^((S4-Q4)/(10*D$81))</f>
+        <v>68852.589084801584</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>ROUND(IF(P4,M4-J4,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>-84</v>
+      </c>
+      <c r="R4" t="b">
+        <f>ABS('n estimate'!$N37)-'n estimate'!$O37&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>-42</v>
+      </c>
+      <c r="T4" s="33">
+        <v>1.2473015335197626</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="1"/>
-        <v>2329534.6272947309</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="7"/>
-        <v>2.5203097690239793</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="8"/>
-        <v>68852.589084801584</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+        <v>2.2851916131973722</v>
+      </c>
+      <c r="V4">
+        <f>ABS(J4-L4)</f>
+        <v>22458.589084801584</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>-84</v>
-      </c>
-      <c r="S4" t="b">
-        <f>ABS('n estimate'!$O37)-'n estimate'!$P37&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>-42</v>
-      </c>
-      <c r="U4" s="33">
-        <v>1.2473015335197626</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="3"/>
-        <v>2.2851916131973722</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="4"/>
-        <v>22458.589084801584</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="5"/>
         <v>421.69650342858256</v>
       </c>
-      <c r="Y4" s="34">
-        <f t="shared" si="9"/>
+      <c r="X4" s="34">
+        <f>ABS(J4-W4)</f>
         <v>45972.303496571418</v>
       </c>
-      <c r="Z4" s="34">
-        <f t="shared" si="6"/>
-        <v>2283140.6272947309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>209</v>
       </c>
@@ -31893,81 +31849,73 @@
         <f t="shared" si="0"/>
         <v>39481</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5">
+        <f>-(Q5-S5)/(10*LOG10(J5/1000))</f>
+        <v>2.6309391078813791</v>
+      </c>
+      <c r="L5">
+        <f>1000*10^((S5-Q5)/(10*D$81))</f>
+        <v>68852.589084801584</v>
+      </c>
+      <c r="M5">
+        <v>50812</v>
+      </c>
+      <c r="N5">
+        <f>ROUND(IF(P5,M5-J5,0),1)</f>
+        <v>11331</v>
+      </c>
+      <c r="O5">
+        <v>105</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>-84</v>
+      </c>
+      <c r="R5" t="b">
+        <f>ABS('n estimate'!$N47)-'n estimate'!$O47&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>-42</v>
+      </c>
+      <c r="T5" s="33">
+        <v>1.2473015335197626</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="1"/>
-        <v>2329534.6272947309</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="7"/>
-        <v>2.6309391078813791</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="8"/>
-        <v>68852.589084801584</v>
-      </c>
-      <c r="N5">
-        <v>50812</v>
-      </c>
-      <c r="O5">
+        <v>2.2851916131973722</v>
+      </c>
+      <c r="V5">
+        <f>ABS(J5-L5)</f>
+        <v>29371.589084801584</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="2"/>
-        <v>11331</v>
-      </c>
-      <c r="P5">
-        <v>105</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>-84</v>
-      </c>
-      <c r="S5" t="b">
-        <f>ABS('n estimate'!$O47)-'n estimate'!$P47&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>-42</v>
-      </c>
-      <c r="U5" s="33">
-        <v>1.2473015335197626</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="3"/>
-        <v>2.2851916131973722</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="4"/>
-        <v>29371.589084801584</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="5"/>
         <v>421.69650342858256</v>
       </c>
-      <c r="Y5" s="34">
-        <f t="shared" si="9"/>
+      <c r="X5" s="34">
+        <f>ABS(J5-W5)</f>
         <v>39059.303496571418</v>
       </c>
-      <c r="Z5" s="34">
-        <f t="shared" si="6"/>
-        <v>2290053.6272947309</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>53</v>
+      <c r="AB5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="34" t="s">
+        <v>48</v>
       </c>
       <c r="AE5" s="34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AF5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG5" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH5" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>252</v>
       </c>
@@ -31999,86 +31947,78 @@
         <f t="shared" si="0"/>
         <v>28178</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6">
+        <f>-(Q6-S6)/(10*LOG10(J6/1000))</f>
+        <v>2.4829124503144113</v>
+      </c>
+      <c r="L6">
+        <f>1000*10^((S6-Q6)/(10*D$81))</f>
+        <v>37614.928134061927</v>
+      </c>
+      <c r="M6">
+        <v>28750</v>
+      </c>
+      <c r="N6">
+        <f>ROUND(IF(P6,M6-J6,0),1)</f>
+        <v>572</v>
+      </c>
+      <c r="O6">
+        <v>720</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>-78</v>
+      </c>
+      <c r="R6" t="b">
+        <f>ABS('n estimate'!$N55)-'n estimate'!$O55&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>-42</v>
+      </c>
+      <c r="T6" s="33">
+        <v>1.2473015335197626</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="1"/>
-        <v>769539.14678691223</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="7"/>
-        <v>2.4829124503144113</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="8"/>
-        <v>37614.928134061927</v>
-      </c>
-      <c r="N6">
-        <v>28750</v>
-      </c>
-      <c r="O6">
+        <v>2.2851916131973722</v>
+      </c>
+      <c r="V6">
+        <f>ABS(J6-L6)</f>
+        <v>9436.9281340619273</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="2"/>
-        <v>572</v>
-      </c>
-      <c r="P6">
-        <v>720</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>-78</v>
-      </c>
-      <c r="S6" t="b">
-        <f>ABS('n estimate'!$O55)-'n estimate'!$P55&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>-42</v>
-      </c>
-      <c r="U6" s="33">
-        <v>1.2473015335197626</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="3"/>
-        <v>2.2851916131973722</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="4"/>
-        <v>9436.9281340619273</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="5"/>
         <v>177.82794100389242</v>
       </c>
-      <c r="Y6" s="34">
-        <f t="shared" si="9"/>
+      <c r="X6" s="34">
+        <f>ABS(J6-W6)</f>
         <v>28000.172058996108</v>
       </c>
-      <c r="Z6" s="34">
-        <f t="shared" si="6"/>
-        <v>741361.14678691223</v>
-      </c>
-      <c r="AD6" s="36">
-        <f>COUNTIFS($W$2:$W$75, "&gt;0",$W$2:$W$75,"&lt;1000")/COUNTIF($W$2:$W$75,"&gt;0")</f>
+      <c r="AB6" s="35">
+        <f>COUNTIFS($V$2:$V$75, "&gt;0",$V$2:$V$75,"&lt;1000")/COUNTIF($V$2:$V$75,"&gt;0")</f>
         <v>0.10144927536231885</v>
       </c>
-      <c r="AE6" s="36">
-        <f>COUNTIFS($W$2:$W$75, "&gt;0",$W$2:$W$75,"&lt;2000")/COUNTIF($W$2:$W$75,"&gt;0")</f>
+      <c r="AC6" s="35">
+        <f>COUNTIFS($V$2:$V$75, "&gt;0",$V$2:$V$75,"&lt;2000")/COUNTIF($V$2:$V$75,"&gt;0")</f>
         <v>0.18840579710144928</v>
       </c>
-      <c r="AF6" s="36">
-        <f>COUNTIFS($W$2:$W$75, "&gt;0",$W$2:$W$75,"&lt;3000")/COUNTIF($W$2:$W$75,"&gt;0")</f>
+      <c r="AD6" s="35">
+        <f>COUNTIFS($V$2:$V$75, "&gt;0",$V$2:$V$75,"&lt;3000")/COUNTIF($V$2:$V$75,"&gt;0")</f>
         <v>0.27536231884057971</v>
       </c>
-      <c r="AG6" s="36">
-        <f>COUNTIFS($W$2:$W$75, "&gt;0",$W$2:$W$75,"&lt;5000")/COUNTIF($W$2:$W$75,"&gt;0")</f>
+      <c r="AE6" s="35">
+        <f>COUNTIFS($V$2:$V$75, "&gt;0",$V$2:$V$75,"&lt;5000")/COUNTIF($V$2:$V$75,"&gt;0")</f>
         <v>0.36231884057971014</v>
       </c>
-      <c r="AH6" s="36">
-        <f>COUNTIFS($W$2:$W$75, "&gt;0",$W$2:$W$75,"&lt;10000")/COUNTIF($W$2:$W$75,"&gt;0")</f>
+      <c r="AF6" s="35">
+        <f>COUNTIFS($V$2:$V$75, "&gt;0",$V$2:$V$75,"&lt;10000")/COUNTIF($V$2:$V$75,"&gt;0")</f>
         <v>0.57971014492753625</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>268</v>
       </c>
@@ -32110,66 +32050,58 @@
         <f t="shared" si="0"/>
         <v>16841</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7">
+        <f>-(Q7-S7)/(10*LOG10(J7/1000))</f>
+        <v>1.6308320197992916</v>
+      </c>
+      <c r="L7">
+        <f>1000*10^((S7-Q7)/(10*D$81))</f>
+        <v>7502.3985479051207</v>
+      </c>
+      <c r="M7">
+        <v>17375</v>
+      </c>
+      <c r="N7">
+        <f>ROUND(IF(P7,M7-J7,0),1)</f>
+        <v>534</v>
+      </c>
+      <c r="O7">
+        <v>630</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>-62</v>
+      </c>
+      <c r="R7" t="b">
+        <f>ABS('n estimate'!$N59)-'n estimate'!$O59&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>-42</v>
+      </c>
+      <c r="T7" s="33">
+        <v>1.2473015335197626</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="1"/>
-        <v>40129.293122975032</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="7"/>
-        <v>1.6308320197992916</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="8"/>
-        <v>7502.3985479051207</v>
-      </c>
-      <c r="N7">
-        <v>17375</v>
-      </c>
-      <c r="O7">
+        <v>2.2851916131973722</v>
+      </c>
+      <c r="V7">
+        <f>ABS(J7-L7)</f>
+        <v>9338.6014520948793</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="2"/>
-        <v>534</v>
-      </c>
-      <c r="P7">
-        <v>630</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>-62</v>
-      </c>
-      <c r="S7" t="b">
-        <f>ABS('n estimate'!$O59)-'n estimate'!$P59&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>-42</v>
-      </c>
-      <c r="U7" s="33">
-        <v>1.2473015335197626</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="3"/>
-        <v>2.2851916131973722</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="4"/>
-        <v>9338.6014520948793</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="5"/>
         <v>17.782794100389236</v>
       </c>
-      <c r="Y7" s="34">
-        <f t="shared" si="9"/>
+      <c r="X7" s="34">
+        <f>ABS(J7-W7)</f>
         <v>16823.217205899611</v>
       </c>
-      <c r="Z7" s="34">
-        <f t="shared" si="6"/>
-        <v>23288.293122975032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>288</v>
       </c>
@@ -32201,66 +32133,58 @@
         <f t="shared" si="0"/>
         <v>11448</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8">
+        <f>-(Q8-S8)/(10*LOG10(J8/1000))</f>
+        <v>1.9835092537686405</v>
+      </c>
+      <c r="L8">
+        <f>1000*10^((S8-Q8)/(10*D$81))</f>
+        <v>8297.7460243611695</v>
+      </c>
+      <c r="M8">
+        <v>10500</v>
+      </c>
+      <c r="N8">
+        <f>ROUND(IF(P8,M8-J8,0),1)</f>
+        <v>-948</v>
+      </c>
+      <c r="O8">
+        <v>645</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>-63</v>
+      </c>
+      <c r="R8" t="b">
+        <f>ABS('n estimate'!$N63)-'n estimate'!$O63&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>-42</v>
+      </c>
+      <c r="T8" s="33">
+        <v>1.2473015335197626</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="1"/>
-        <v>48265.252794269407</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="7"/>
-        <v>1.9835092537686405</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="8"/>
-        <v>8297.7460243611695</v>
-      </c>
-      <c r="N8">
-        <v>10500</v>
-      </c>
-      <c r="O8">
+        <v>2.2851916131973722</v>
+      </c>
+      <c r="V8">
+        <f>ABS(J8-L8)</f>
+        <v>3150.2539756388305</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="2"/>
-        <v>-948</v>
-      </c>
-      <c r="P8">
-        <v>645</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>-63</v>
-      </c>
-      <c r="S8" t="b">
-        <f>ABS('n estimate'!$O63)-'n estimate'!$P63&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>-42</v>
-      </c>
-      <c r="U8" s="33">
-        <v>1.2473015335197626</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="3"/>
-        <v>2.2851916131973722</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="4"/>
-        <v>3150.2539756388305</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="5"/>
         <v>20.535250264571467</v>
       </c>
-      <c r="Y8" s="34">
-        <f t="shared" si="9"/>
+      <c r="X8" s="34">
+        <f>ABS(J8-W8)</f>
         <v>11427.464749735429</v>
       </c>
-      <c r="Z8" s="34">
-        <f t="shared" si="6"/>
-        <v>36817.252794269407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>308</v>
       </c>
@@ -32292,66 +32216,58 @@
         <f t="shared" si="0"/>
         <v>7163</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9">
+        <f>-(Q9-S9)/(10*LOG10(J9/1000))</f>
+        <v>1.8711372319905053</v>
+      </c>
+      <c r="L9">
+        <f>1000*10^((S9-Q9)/(10*D$81))</f>
+        <v>5013.720331421885</v>
+      </c>
+      <c r="M9">
+        <v>8062</v>
+      </c>
+      <c r="N9">
+        <f>ROUND(IF(P9,M9-J9,0),1)</f>
+        <v>899</v>
+      </c>
+      <c r="O9">
+        <v>645</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>-58</v>
+      </c>
+      <c r="R9" t="b">
+        <f>ABS('n estimate'!$N68)-'n estimate'!$O68&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>-42</v>
+      </c>
+      <c r="T9" s="33">
+        <v>1.2473015335197626</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="1"/>
-        <v>19176.493949910404</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="7"/>
-        <v>1.8711372319905053</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="8"/>
-        <v>5013.720331421885</v>
-      </c>
-      <c r="N9">
-        <v>8062</v>
-      </c>
-      <c r="O9">
+        <v>2.2851916131973722</v>
+      </c>
+      <c r="V9">
+        <f>ABS(J9-L9)</f>
+        <v>2149.279668578115</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="2"/>
-        <v>899</v>
-      </c>
-      <c r="P9">
-        <v>645</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>-58</v>
-      </c>
-      <c r="S9" t="b">
-        <f>ABS('n estimate'!$O68)-'n estimate'!$P68&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>-42</v>
-      </c>
-      <c r="U9" s="33">
-        <v>1.2473015335197626</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="3"/>
-        <v>2.2851916131973722</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="4"/>
-        <v>2149.279668578115</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="Y9" s="34">
-        <f t="shared" si="9"/>
+      <c r="X9" s="34">
+        <f>ABS(J9-W9)</f>
         <v>7153</v>
       </c>
-      <c r="Z9" s="34">
-        <f t="shared" si="6"/>
-        <v>12013.493949910404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>323</v>
       </c>
@@ -32383,66 +32299,58 @@
         <f t="shared" si="0"/>
         <v>2934</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10">
+        <f>-(Q10-S10)/(10*LOG10(J10/1000))</f>
+        <v>1.7113759735419067</v>
+      </c>
+      <c r="L10">
+        <f>1000*10^((S10-Q10)/(10*D$81))</f>
+        <v>2239.1338350848719</v>
+      </c>
+      <c r="M10">
+        <v>3000</v>
+      </c>
+      <c r="N10">
+        <f>ROUND(IF(P10,M10-J10,0),1)</f>
+        <v>66</v>
+      </c>
+      <c r="O10">
+        <v>555</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>-50</v>
+      </c>
+      <c r="R10" t="b">
+        <f>ABS('n estimate'!$N71)-'n estimate'!$O71&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>-42</v>
+      </c>
+      <c r="T10" s="33">
+        <v>1.2473015335197626</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="1"/>
-        <v>4379.0973898636239</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="7"/>
-        <v>1.7113759735419067</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="8"/>
-        <v>2239.1338350848719</v>
-      </c>
-      <c r="N10">
-        <v>3000</v>
-      </c>
-      <c r="O10">
+        <v>2.2851916131973722</v>
+      </c>
+      <c r="V10">
+        <f>ABS(J10-L10)</f>
+        <v>694.86616491512814</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="P10">
-        <v>555</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>-50</v>
-      </c>
-      <c r="S10" t="b">
-        <f>ABS('n estimate'!$O71)-'n estimate'!$P71&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>-42</v>
-      </c>
-      <c r="U10" s="33">
-        <v>1.2473015335197626</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="3"/>
-        <v>2.2851916131973722</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="4"/>
-        <v>694.86616491512814</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="5"/>
         <v>3.1622776601683795</v>
       </c>
-      <c r="Y10" s="34">
-        <f t="shared" si="9"/>
+      <c r="X10" s="34">
+        <f>ABS(J10-W10)</f>
         <v>2930.8377223398315</v>
       </c>
-      <c r="Z10" s="34">
-        <f t="shared" si="6"/>
-        <v>1445.0973898636239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>343</v>
       </c>
@@ -32474,71 +32382,61 @@
         <f t="shared" si="0"/>
         <v>11264</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11">
+        <f>-(Q11-S11)/(10*LOG10(J11/1000))</f>
+        <v>2.2820355535594654</v>
+      </c>
+      <c r="L11">
+        <f>1000*10^((S11-Q11)/(10*D$81))</f>
+        <v>11226.390833739673</v>
+      </c>
+      <c r="M11">
+        <v>18750</v>
+      </c>
+      <c r="N11">
+        <f>ROUND(IF(P11,M11-J11,0),1)</f>
+        <v>7486</v>
+      </c>
+      <c r="O11">
+        <v>600</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>-66</v>
+      </c>
+      <c r="R11" t="b">
+        <f>ABS('n estimate'!$N75)-'n estimate'!$O75&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>-42</v>
+      </c>
+      <c r="T11" s="33">
+        <v>1.2473015335197626</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="1"/>
-        <v>83975.734602788245</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="7"/>
-        <v>2.2820355535594654</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="8"/>
-        <v>11226.390833739673</v>
-      </c>
-      <c r="N11">
-        <v>18750</v>
-      </c>
-      <c r="O11">
+        <v>2.2851916131973722</v>
+      </c>
+      <c r="V11">
+        <f>ABS(J11-L11)</f>
+        <v>37.609166260326674</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="2"/>
-        <v>7486</v>
-      </c>
-      <c r="P11">
-        <v>600</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>-66</v>
-      </c>
-      <c r="S11" t="b">
-        <f>ABS('n estimate'!$O75)-'n estimate'!$P75&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>-42</v>
-      </c>
-      <c r="U11" s="33">
-        <v>1.2473015335197626</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="3"/>
-        <v>2.2851916131973722</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="4"/>
-        <v>37.609166260326674</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="5"/>
         <v>31.622776601683803</v>
       </c>
-      <c r="Y11" s="34">
-        <f t="shared" si="9"/>
+      <c r="X11" s="34">
+        <f>ABS(J11-W11)</f>
         <v>11232.377223398316</v>
       </c>
-      <c r="Z11" s="34">
-        <f t="shared" si="6"/>
-        <v>72711.734602788245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="K12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="X12" s="34"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>48</v>
       </c>
@@ -32567,69 +32465,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J26" si="10">ROUND(SQRT((G13-D13)^2+(H13-E13)^2+(I13-F13)^2),0)</f>
+        <f t="shared" ref="J13:J26" si="3">ROUND(SQRT((G13-D13)^2+(H13-E13)^2+(I13-F13)^2),0)</f>
         <v>48297</v>
       </c>
-      <c r="K13" s="34">
-        <f t="shared" ref="K13:K26" si="11">1000*10^((T13-R13)/(10*E$82))</f>
-        <v>10779884.046534037</v>
+      <c r="K13">
+        <f>-(Q13-S13)/(10*LOG10(J13/1000))</f>
+        <v>2.7911062087842957</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L26" si="12">-(R13-T13)/(10*LOG10(J13/1000))</f>
-        <v>2.7911062087842957</v>
+        <f>1000*10^((S13-Q13)/(10*D$82))</f>
+        <v>48141.832379986772</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M26" si="13">1000*10^((T13-R13)/(10*D$82))</f>
-        <v>48141.832379986772</v>
+        <v>0</v>
       </c>
       <c r="N13">
+        <f>ROUND(IF(P13,M13-J13,0),1)</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O26" si="14">ROUND(IF(Q13,N13-J13,0),1)</f>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>-87</v>
       </c>
-      <c r="S13" t="b">
-        <f>ABS('n estimate'!$O11)-'n estimate'!$P11&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T13">
+      <c r="R13" t="b">
+        <f>ABS('n estimate'!$N11)-'n estimate'!$O11&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>-40</v>
       </c>
-      <c r="U13" s="33">
+      <c r="T13" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U13">
+        <f t="shared" ref="U13:U26" si="4">AVERAGE($K$13:$K$26)</f>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V13">
-        <f t="shared" ref="V13:V26" si="15">AVERAGE($L$13:$L$26)</f>
-        <v>2.7934245603185177</v>
+        <f>ABS(J13-L13)</f>
+        <v>155.16762001322786</v>
       </c>
       <c r="W13">
-        <f t="shared" ref="W13:W26" si="16">ABS(J13-M13)</f>
-        <v>155.16762001322786</v>
-      </c>
-      <c r="X13">
-        <f t="shared" ref="X13:X26" si="17">10^((T13-R13)/(10*1.6))</f>
+        <f t="shared" ref="W13:W26" si="5">10^((S13-Q13)/(10*1.6))</f>
         <v>865.96432336006569</v>
       </c>
-      <c r="Y13" s="34">
-        <f t="shared" si="9"/>
+      <c r="X13" s="34">
+        <f>ABS(J13-W13)</f>
         <v>47431.035676639935</v>
       </c>
-      <c r="Z13" s="34">
-        <f t="shared" ref="Z13:Z26" si="18">ABS(J13-K13)</f>
-        <v>10731587.046534037</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>68</v>
       </c>
@@ -32658,69 +32548,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>45999</v>
       </c>
-      <c r="K14" s="34">
-        <f t="shared" si="11"/>
-        <v>19499118.955453668</v>
+      <c r="K14">
+        <f>-(Q14-S14)/(10*LOG10(J14/1000))</f>
+        <v>3.0070695174833544</v>
       </c>
       <c r="L14">
-        <f t="shared" si="12"/>
-        <v>3.0070695174833544</v>
+        <f>1000*10^((S14-Q14)/(10*D$82))</f>
+        <v>61647.813389430783</v>
       </c>
       <c r="M14">
-        <f t="shared" si="13"/>
-        <v>61647.813389430783</v>
+        <v>53812</v>
       </c>
       <c r="N14">
-        <v>53812</v>
+        <f>ROUND(IF(P14,M14-J14,0),1)</f>
+        <v>7813</v>
       </c>
       <c r="O14">
-        <f t="shared" si="14"/>
-        <v>7813</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14">
         <v>-90</v>
       </c>
-      <c r="S14" t="b">
-        <f>ABS('n estimate'!$O16)-'n estimate'!$P16&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="R14" t="b">
+        <f>ABS('n estimate'!$N16)-'n estimate'!$O16&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>-40</v>
       </c>
-      <c r="U14" s="33">
+      <c r="T14" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V14">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J14-L14)</f>
+        <v>15648.813389430783</v>
       </c>
       <c r="W14">
-        <f t="shared" si="16"/>
-        <v>15648.813389430783</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>1333.5214321633246</v>
       </c>
-      <c r="Y14" s="34">
-        <f t="shared" si="9"/>
+      <c r="X14" s="34">
+        <f>ABS(J14-W14)</f>
         <v>44665.478567836675</v>
       </c>
-      <c r="Z14" s="34">
-        <f t="shared" si="18"/>
-        <v>19453119.955453668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>88</v>
       </c>
@@ -32749,69 +32631,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>44214</v>
       </c>
-      <c r="K15" s="34">
-        <f t="shared" si="11"/>
-        <v>170140.53501750523</v>
+      <c r="K15">
+        <f>-(Q15-S15)/(10*LOG10(J15/1000))</f>
+        <v>1.5800094223787966</v>
       </c>
       <c r="L15">
-        <f t="shared" si="12"/>
-        <v>1.5800094223787966</v>
+        <f>1000*10^((S15-Q15)/(10*D$82))</f>
+        <v>8526.2329104527926</v>
       </c>
       <c r="M15">
-        <f t="shared" si="13"/>
-        <v>8526.2329104527926</v>
+        <v>44500</v>
       </c>
       <c r="N15">
-        <v>44500</v>
+        <f>ROUND(IF(P15,M15-J15,0),1)</f>
+        <v>286</v>
       </c>
       <c r="O15">
-        <f t="shared" si="14"/>
-        <v>286</v>
-      </c>
-      <c r="P15">
         <v>540</v>
       </c>
-      <c r="Q15" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15">
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15">
         <v>-66</v>
       </c>
-      <c r="S15" t="b">
-        <f>ABS('n estimate'!$O20)-'n estimate'!$P20&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="R15" t="b">
+        <f>ABS('n estimate'!$N20)-'n estimate'!$O20&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>-40</v>
       </c>
-      <c r="U15" s="33">
+      <c r="T15" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V15">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J15-L15)</f>
+        <v>35687.767089547211</v>
       </c>
       <c r="W15">
-        <f t="shared" si="16"/>
-        <v>35687.767089547211</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>42.169650342858247</v>
       </c>
-      <c r="Y15" s="34">
-        <f t="shared" si="9"/>
+      <c r="X15" s="34">
+        <f>ABS(J15-W15)</f>
         <v>44171.830349657139</v>
       </c>
-      <c r="Z15" s="34">
-        <f t="shared" si="18"/>
-        <v>125926.53501750523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>108</v>
       </c>
@@ -32840,69 +32714,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>34287</v>
       </c>
-      <c r="K16" s="34">
-        <f t="shared" si="11"/>
-        <v>678281.37604318885</v>
+      <c r="K16">
+        <f>-(Q16-S16)/(10*LOG10(J16/1000))</f>
+        <v>2.149655795820669</v>
       </c>
       <c r="L16">
-        <f t="shared" si="12"/>
-        <v>2.149655795820669</v>
+        <f>1000*10^((S16-Q16)/(10*D$82))</f>
+        <v>15182.583099644615</v>
       </c>
       <c r="M16">
-        <f t="shared" si="13"/>
-        <v>15182.583099644615</v>
+        <v>36000</v>
       </c>
       <c r="N16">
-        <v>36000</v>
+        <f>ROUND(IF(P16,M16-J16,0),1)</f>
+        <v>1713</v>
       </c>
       <c r="O16">
-        <f t="shared" si="14"/>
-        <v>1713</v>
-      </c>
-      <c r="P16">
         <v>525</v>
       </c>
-      <c r="Q16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16">
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>-73</v>
       </c>
-      <c r="S16" t="b">
-        <f>ABS('n estimate'!$O24)-'n estimate'!$P24&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T16">
+      <c r="R16" t="b">
+        <f>ABS('n estimate'!$N24)-'n estimate'!$O24&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>-40</v>
       </c>
-      <c r="U16" s="33">
+      <c r="T16" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V16">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J16-L16)</f>
+        <v>19104.416900355383</v>
       </c>
       <c r="W16">
-        <f t="shared" si="16"/>
-        <v>19104.416900355383</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>115.47819846894591</v>
       </c>
-      <c r="Y16" s="34">
-        <f t="shared" si="9"/>
+      <c r="X16" s="34">
+        <f>ABS(J16-W16)</f>
         <v>34171.521801531053</v>
       </c>
-      <c r="Z16" s="34">
-        <f t="shared" si="18"/>
-        <v>643994.37604318885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>128</v>
       </c>
@@ -32931,69 +32797,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>26347</v>
       </c>
-      <c r="K17" s="34">
-        <f t="shared" si="11"/>
-        <v>10779884.046534037</v>
+      <c r="K17">
+        <f>-(Q17-S17)/(10*LOG10(J17/1000))</f>
+        <v>3.3081557542170734</v>
       </c>
       <c r="L17">
-        <f t="shared" si="12"/>
-        <v>3.3081557542170734</v>
+        <f>1000*10^((S17-Q17)/(10*D$82))</f>
+        <v>48141.832379986772</v>
       </c>
       <c r="M17">
-        <f t="shared" si="13"/>
-        <v>48141.832379986772</v>
+        <v>0</v>
       </c>
       <c r="N17">
+        <f>ROUND(IF(P17,M17-J17,0),1)</f>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>-87</v>
       </c>
-      <c r="S17" t="b">
-        <f>ABS('n estimate'!$O29)-'n estimate'!$P29&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T17">
+      <c r="R17" t="b">
+        <f>ABS('n estimate'!$N29)-'n estimate'!$O29&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>-40</v>
       </c>
-      <c r="U17" s="33">
+      <c r="T17" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V17">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J17-L17)</f>
+        <v>21794.832379986772</v>
       </c>
       <c r="W17">
-        <f t="shared" si="16"/>
-        <v>21794.832379986772</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>865.96432336006569</v>
       </c>
-      <c r="Y17" s="34">
-        <f t="shared" si="9"/>
+      <c r="X17" s="34">
+        <f>ABS(J17-W17)</f>
         <v>25481.035676639935</v>
       </c>
-      <c r="Z17" s="34">
-        <f t="shared" si="18"/>
-        <v>10753537.046534037</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>147</v>
       </c>
@@ -33022,69 +32880,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>21331</v>
       </c>
-      <c r="K18" s="34">
-        <f t="shared" si="11"/>
-        <v>16003489.489299774</v>
+      <c r="K18">
+        <f>-(Q18-S18)/(10*LOG10(J18/1000))</f>
+        <v>3.6869515788036202</v>
       </c>
       <c r="L18">
-        <f t="shared" si="12"/>
-        <v>3.6869515788036202</v>
+        <f>1000*10^((S18-Q18)/(10*D$82))</f>
+        <v>56770.056114109655</v>
       </c>
       <c r="M18">
-        <f t="shared" si="13"/>
-        <v>56770.056114109655</v>
+        <v>0</v>
       </c>
       <c r="N18">
+        <f>ROUND(IF(P18,M18-J18,0),1)</f>
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>-89</v>
       </c>
-      <c r="S18" t="b">
-        <f>ABS('n estimate'!$O32)-'n estimate'!$P32&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T18">
+      <c r="R18" t="b">
+        <f>ABS('n estimate'!$N32)-'n estimate'!$O32&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>-40</v>
       </c>
-      <c r="U18" s="33">
+      <c r="T18" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V18">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J18-L18)</f>
+        <v>35439.056114109655</v>
       </c>
       <c r="W18">
-        <f t="shared" si="16"/>
-        <v>35439.056114109655</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>1154.7819846894593</v>
       </c>
-      <c r="Y18" s="34">
-        <f t="shared" si="9"/>
+      <c r="X18" s="34">
+        <f>ABS(J18-W18)</f>
         <v>20176.21801531054</v>
       </c>
-      <c r="Z18" s="34">
-        <f t="shared" si="18"/>
-        <v>15982158.489299774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>163</v>
       </c>
@@ -33113,69 +32963,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>11638</v>
       </c>
-      <c r="K19" s="34">
-        <f t="shared" si="11"/>
-        <v>307757.53404486272</v>
+      <c r="K19">
+        <f>-(Q19-S19)/(10*LOG10(J19/1000))</f>
+        <v>2.7207607624507242</v>
       </c>
       <c r="L19">
-        <f t="shared" si="12"/>
-        <v>2.7207607624507242</v>
+        <f>1000*10^((S19-Q19)/(10*D$82))</f>
+        <v>10918.230349639254</v>
       </c>
       <c r="M19">
-        <f t="shared" si="13"/>
-        <v>10918.230349639254</v>
+        <v>16625</v>
       </c>
       <c r="N19">
-        <v>16625</v>
+        <f>ROUND(IF(P19,M19-J19,0),1)</f>
+        <v>4987</v>
       </c>
       <c r="O19">
-        <f t="shared" si="14"/>
-        <v>4987</v>
-      </c>
-      <c r="P19">
         <v>690</v>
       </c>
-      <c r="Q19" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19">
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19">
         <v>-69</v>
       </c>
-      <c r="S19" t="b">
-        <f>ABS('n estimate'!$O36)-'n estimate'!$P36&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T19">
+      <c r="R19" t="b">
+        <f>ABS('n estimate'!$N36)-'n estimate'!$O36&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>-40</v>
       </c>
-      <c r="U19" s="33">
+      <c r="T19" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V19">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J19-L19)</f>
+        <v>719.7696503607458</v>
       </c>
       <c r="W19">
-        <f t="shared" si="16"/>
-        <v>719.7696503607458</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>64.938163157621162</v>
       </c>
-      <c r="Y19" s="34">
-        <f t="shared" si="9"/>
+      <c r="X19" s="34">
+        <f>ABS(J19-W19)</f>
         <v>11573.061836842378</v>
       </c>
-      <c r="Z19" s="34">
-        <f t="shared" si="18"/>
-        <v>296119.53404486272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>188</v>
       </c>
@@ -33204,69 +33046,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>7611</v>
       </c>
-      <c r="K20" s="34">
-        <f t="shared" si="11"/>
-        <v>170140.53501750523</v>
+      <c r="K20">
+        <f>-(Q20-S20)/(10*LOG10(J20/1000))</f>
+        <v>2.949712879795896</v>
       </c>
       <c r="L20">
-        <f t="shared" si="12"/>
-        <v>2.949712879795896</v>
+        <f>1000*10^((S20-Q20)/(10*D$82))</f>
+        <v>8526.2329104527926</v>
       </c>
       <c r="M20">
-        <f t="shared" si="13"/>
-        <v>8526.2329104527926</v>
+        <v>10937</v>
       </c>
       <c r="N20">
-        <v>10937</v>
+        <f>ROUND(IF(P20,M20-J20,0),1)</f>
+        <v>3326</v>
       </c>
       <c r="O20">
-        <f t="shared" si="14"/>
-        <v>3326</v>
-      </c>
-      <c r="P20">
         <v>735</v>
       </c>
-      <c r="Q20" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20">
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
         <v>-66</v>
       </c>
-      <c r="S20" t="b">
-        <f>ABS('n estimate'!$O42)-'n estimate'!$P42&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T20">
+      <c r="R20" t="b">
+        <f>ABS('n estimate'!$N42)-'n estimate'!$O42&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>-40</v>
       </c>
-      <c r="U20" s="33">
+      <c r="T20" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V20">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J20-L20)</f>
+        <v>915.23291045279257</v>
       </c>
       <c r="W20">
-        <f t="shared" si="16"/>
-        <v>915.23291045279257</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>42.169650342858247</v>
       </c>
-      <c r="Y20" s="34">
-        <f t="shared" si="9"/>
+      <c r="X20" s="34">
+        <f>ABS(J20-W20)</f>
         <v>7568.8303496571416</v>
       </c>
-      <c r="Z20" s="34">
-        <f t="shared" si="18"/>
-        <v>162529.53501750523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>208</v>
       </c>
@@ -33295,69 +33129,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>5321</v>
       </c>
-      <c r="K21" s="34">
-        <f t="shared" si="11"/>
-        <v>139639.24575653387</v>
+      <c r="K21">
+        <f>-(Q21-S21)/(10*LOG10(J21/1000))</f>
+        <v>3.443558145020218</v>
       </c>
       <c r="L21">
-        <f t="shared" si="12"/>
-        <v>3.443558145020218</v>
+        <f>1000*10^((S21-Q21)/(10*D$82))</f>
+        <v>7851.6121522545154</v>
       </c>
       <c r="M21">
-        <f t="shared" si="13"/>
-        <v>7851.6121522545154</v>
+        <v>5687</v>
       </c>
       <c r="N21">
-        <v>5687</v>
+        <f>ROUND(IF(P21,M21-J21,0),1)</f>
+        <v>366</v>
       </c>
       <c r="O21">
-        <f t="shared" si="14"/>
-        <v>366</v>
-      </c>
-      <c r="P21">
         <v>570</v>
       </c>
-      <c r="Q21" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21">
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21">
         <v>-65</v>
       </c>
-      <c r="S21" t="b">
-        <f>ABS('n estimate'!$O46)-'n estimate'!$P46&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T21">
+      <c r="R21" t="b">
+        <f>ABS('n estimate'!$N46)-'n estimate'!$O46&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>-40</v>
       </c>
-      <c r="U21" s="33">
+      <c r="T21" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V21">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J21-L21)</f>
+        <v>2530.6121522545154</v>
       </c>
       <c r="W21">
-        <f t="shared" si="16"/>
-        <v>2530.6121522545154</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>36.51741272548378</v>
       </c>
-      <c r="Y21" s="34">
-        <f t="shared" si="9"/>
+      <c r="X21" s="34">
+        <f>ABS(J21-W21)</f>
         <v>5284.4825872745159</v>
       </c>
-      <c r="Z21" s="34">
-        <f t="shared" si="18"/>
-        <v>134318.24575653387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>233</v>
       </c>
@@ -33386,69 +33212,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>10507</v>
       </c>
-      <c r="K22" s="34">
-        <f t="shared" si="11"/>
-        <v>19364.420134623317</v>
+      <c r="K22">
+        <f>-(Q22-S22)/(10*LOG10(J22/1000))</f>
+        <v>1.4684593546895617</v>
       </c>
       <c r="L22">
-        <f t="shared" si="12"/>
-        <v>1.4684593546895617</v>
+        <f>1000*10^((S22-Q22)/(10*D$82))</f>
+        <v>3443.3034928136944</v>
       </c>
       <c r="M22">
-        <f t="shared" si="13"/>
-        <v>3443.3034928136944</v>
+        <v>11500</v>
       </c>
       <c r="N22">
-        <v>11500</v>
+        <f>ROUND(IF(P22,M22-J22,0),1)</f>
+        <v>993</v>
       </c>
       <c r="O22">
-        <f t="shared" si="14"/>
-        <v>993</v>
-      </c>
-      <c r="P22">
         <v>465</v>
       </c>
-      <c r="Q22" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22">
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
         <v>-55</v>
       </c>
-      <c r="S22" t="b">
-        <f>ABS('n estimate'!$O51)-'n estimate'!$P51&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T22">
+      <c r="R22" t="b">
+        <f>ABS('n estimate'!$N51)-'n estimate'!$O51&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>-40</v>
       </c>
-      <c r="U22" s="33">
+      <c r="T22" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V22">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J22-L22)</f>
+        <v>7063.6965071863051</v>
       </c>
       <c r="W22">
-        <f t="shared" si="16"/>
-        <v>7063.6965071863051</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>8.6596432336006561</v>
       </c>
-      <c r="Y22" s="34">
-        <f t="shared" si="9"/>
+      <c r="X22" s="34">
+        <f>ABS(J22-W22)</f>
         <v>10498.340356766399</v>
       </c>
-      <c r="Z22" s="34">
-        <f t="shared" si="18"/>
-        <v>8857.4201346233167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>253</v>
       </c>
@@ -33477,69 +33295,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>26262</v>
       </c>
-      <c r="K23" s="34">
-        <f t="shared" si="11"/>
-        <v>16003489.489299774</v>
+      <c r="K23">
+        <f>-(Q23-S23)/(10*LOG10(J23/1000))</f>
+        <v>3.4523385016260577</v>
       </c>
       <c r="L23">
-        <f t="shared" si="12"/>
-        <v>3.4523385016260577</v>
+        <f>1000*10^((S23-Q23)/(10*D$82))</f>
+        <v>56770.056114109655</v>
       </c>
       <c r="M23">
-        <f t="shared" si="13"/>
-        <v>56770.056114109655</v>
+        <v>0</v>
       </c>
       <c r="N23">
+        <f>ROUND(IF(P23,M23-J23,0),1)</f>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>-89</v>
       </c>
-      <c r="S23" t="b">
-        <f>ABS('n estimate'!$O56)-'n estimate'!$P56&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T23">
+      <c r="R23" t="b">
+        <f>ABS('n estimate'!$N56)-'n estimate'!$O56&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S23">
         <v>-40</v>
       </c>
-      <c r="U23" s="33">
+      <c r="T23" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V23">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J23-L23)</f>
+        <v>30508.056114109655</v>
       </c>
       <c r="W23">
-        <f t="shared" si="16"/>
-        <v>30508.056114109655</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>1154.7819846894593</v>
       </c>
-      <c r="Y23" s="34">
-        <f t="shared" si="9"/>
+      <c r="X23" s="34">
+        <f>ABS(J23-W23)</f>
         <v>25107.21801531054</v>
       </c>
-      <c r="Z23" s="34">
-        <f t="shared" si="18"/>
-        <v>15977227.489299774</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>269</v>
       </c>
@@ -33568,69 +33378,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>45713</v>
       </c>
-      <c r="K24" s="34">
-        <f t="shared" si="11"/>
-        <v>2704033.0221114382</v>
+      <c r="K24">
+        <f>-(Q24-S24)/(10*LOG10(J24/1000))</f>
+        <v>2.4095808932341165</v>
       </c>
       <c r="L24">
-        <f t="shared" si="12"/>
-        <v>2.4095808932341165</v>
+        <f>1000*10^((S24-Q24)/(10*D$82))</f>
+        <v>27035.48354807643</v>
       </c>
       <c r="M24">
-        <f t="shared" si="13"/>
-        <v>27035.48354807643</v>
+        <v>0</v>
       </c>
       <c r="N24">
+        <f>ROUND(IF(P24,M24-J24,0),1)</f>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>-80</v>
       </c>
-      <c r="S24" t="b">
-        <f>ABS('n estimate'!$O60)-'n estimate'!$P60&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T24">
+      <c r="R24" t="b">
+        <f>ABS('n estimate'!$N60)-'n estimate'!$O60&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S24">
         <v>-40</v>
       </c>
-      <c r="U24" s="33">
+      <c r="T24" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V24">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J24-L24)</f>
+        <v>18677.51645192357</v>
       </c>
       <c r="W24">
-        <f t="shared" si="16"/>
-        <v>18677.51645192357</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>316.22776601683825</v>
       </c>
-      <c r="Y24" s="34">
-        <f t="shared" si="9"/>
+      <c r="X24" s="34">
+        <f>ABS(J24-W24)</f>
         <v>45396.77223398316</v>
       </c>
-      <c r="Z24" s="34">
-        <f t="shared" si="18"/>
-        <v>2658320.0221114382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>289</v>
       </c>
@@ -33659,69 +33461,61 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>46257</v>
       </c>
-      <c r="K25" s="34">
-        <f t="shared" si="11"/>
-        <v>23758295.982457556</v>
+      <c r="K25">
+        <f>-(Q25-S25)/(10*LOG10(J25/1000))</f>
+        <v>3.062736622874886</v>
       </c>
       <c r="L25">
-        <f t="shared" si="12"/>
-        <v>3.062736622874886</v>
+        <f>1000*10^((S25-Q25)/(10*D$82))</f>
+        <v>66944.673932663558</v>
       </c>
       <c r="M25">
-        <f t="shared" si="13"/>
-        <v>66944.673932663558</v>
+        <v>0</v>
       </c>
       <c r="N25">
+        <f>ROUND(IF(P25,M25-J25,0),1)</f>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="b">
-        <v>0</v>
-      </c>
-      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>-91</v>
       </c>
-      <c r="S25" t="b">
-        <f>ABS('n estimate'!$O65)-'n estimate'!$P65&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T25">
+      <c r="R25" t="b">
+        <f>ABS('n estimate'!$N65)-'n estimate'!$O65&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>-40</v>
       </c>
-      <c r="U25" s="33">
+      <c r="T25" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V25">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J25-L25)</f>
+        <v>20687.673932663558</v>
       </c>
       <c r="W25">
-        <f t="shared" si="16"/>
-        <v>20687.673932663558</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>1539.926526059493</v>
       </c>
-      <c r="Y25" s="34">
-        <f t="shared" si="9"/>
+      <c r="X25" s="34">
+        <f>ABS(J25-W25)</f>
         <v>44717.073473940509</v>
       </c>
-      <c r="Z25" s="34">
-        <f t="shared" si="18"/>
-        <v>23712038.982457556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>324</v>
       </c>
@@ -33750,74 +33544,64 @@
         <v>-356447.89152410498</v>
       </c>
       <c r="J26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>39086</v>
       </c>
-      <c r="K26" s="34">
-        <f t="shared" si="11"/>
-        <v>16003489.489299774</v>
+      <c r="K26">
+        <f>-(Q26-S26)/(10*LOG10(J26/1000))</f>
+        <v>3.0778484072799821</v>
       </c>
       <c r="L26">
-        <f t="shared" si="12"/>
-        <v>3.0778484072799821</v>
+        <f>1000*10^((S26-Q26)/(10*D$82))</f>
+        <v>56770.056114109655</v>
       </c>
       <c r="M26">
-        <f t="shared" si="13"/>
-        <v>56770.056114109655</v>
+        <v>0</v>
       </c>
       <c r="N26">
+        <f>ROUND(IF(P26,M26-J26,0),1)</f>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>-89</v>
       </c>
-      <c r="S26" t="b">
-        <f>ABS('n estimate'!$O72)-'n estimate'!$P72&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T26">
+      <c r="R26" t="b">
+        <f>ABS('n estimate'!$N72)-'n estimate'!$O72&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>-40</v>
       </c>
-      <c r="U26" s="33">
+      <c r="T26" s="33">
         <v>1.1654970933996334</v>
       </c>
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>2.7934245603185177</v>
+      </c>
       <c r="V26">
-        <f t="shared" si="15"/>
-        <v>2.7934245603185177</v>
+        <f>ABS(J26-L26)</f>
+        <v>17684.056114109655</v>
       </c>
       <c r="W26">
-        <f t="shared" si="16"/>
-        <v>17684.056114109655</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>1154.7819846894593</v>
       </c>
-      <c r="Y26" s="34">
-        <f t="shared" si="9"/>
+      <c r="X26" s="34">
+        <f>ABS(J26-W26)</f>
         <v>37931.218015310544</v>
       </c>
-      <c r="Z26" s="34">
-        <f t="shared" si="18"/>
-        <v>15964403.489299774</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X27" s="34"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -33846,69 +33630,61 @@
         <v>-335657.725485856</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:J38" si="19">ROUND(SQRT((G28-D28)^2+(H28-E28)^2+(I28-F28)^2),0)</f>
+        <f t="shared" ref="J28:J38" si="6">ROUND(SQRT((G28-D28)^2+(H28-E28)^2+(I28-F28)^2),0)</f>
         <v>33978</v>
       </c>
-      <c r="K28" s="34">
-        <f t="shared" ref="K28:K38" si="20">1000*10^((T28-R28)/(10*E$83))</f>
-        <v>30570353.832684424</v>
+      <c r="K28">
+        <f>-(Q28-S28)/(10*LOG10(J28/1000))</f>
+        <v>3.1348007176803034</v>
       </c>
       <c r="L28">
-        <f t="shared" ref="L28:L38" si="21">-(R28-T28)/(10*LOG10(J28/1000))</f>
-        <v>3.1348007176803034</v>
+        <f>1000*10^((S28-Q28)/(10*D$83))</f>
+        <v>52403.34475934723</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28:M38" si="22">1000*10^((T28-R28)/(10*D$83))</f>
-        <v>52403.34475934723</v>
+        <v>0</v>
       </c>
       <c r="N28">
+        <f>ROUND(IF(P28,M28-J28,0),1)</f>
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O38" si="23">ROUND(IF(Q28,N28-J28,0),1)</f>
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>-89</v>
       </c>
-      <c r="S28" t="b">
-        <f>ABS('n estimate'!$O8)-'n estimate'!$P8&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T28">
+      <c r="R28" t="b">
+        <f>ABS('n estimate'!$N8)-'n estimate'!$O8&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>-41</v>
       </c>
-      <c r="U28" s="33">
+      <c r="T28" s="33">
         <v>1.0701624198831508</v>
       </c>
+      <c r="U28">
+        <f t="shared" ref="U28:U38" si="7">AVERAGE($K$28:$K$38)</f>
+        <v>2.7917380713255842</v>
+      </c>
       <c r="V28">
-        <f t="shared" ref="V28:V38" si="24">AVERAGE($L$28:$L$38)</f>
-        <v>2.7917380713255842</v>
+        <f>ABS(J28-L28)</f>
+        <v>18425.34475934723</v>
       </c>
       <c r="W28">
-        <f t="shared" ref="W28:W38" si="25">ABS(J28-M28)</f>
-        <v>18425.34475934723</v>
-      </c>
-      <c r="X28">
-        <f t="shared" ref="X28:X38" si="26">10^((T28-R28)/(10*1.6))</f>
+        <f t="shared" ref="W28:W38" si="8">10^((S28-Q28)/(10*1.6))</f>
         <v>1000</v>
       </c>
-      <c r="Y28" s="34">
-        <f t="shared" si="9"/>
+      <c r="X28" s="34">
+        <f>ABS(J28-W28)</f>
         <v>32978</v>
       </c>
-      <c r="Z28" s="34">
-        <f t="shared" ref="Z28:Z38" si="27">ABS(J28-K28)</f>
-        <v>30536375.832684424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>49</v>
       </c>
@@ -33937,69 +33713,61 @@
         <v>-335657.725485856</v>
       </c>
       <c r="J29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>30885</v>
       </c>
-      <c r="K29" s="34">
-        <f t="shared" si="20"/>
-        <v>4408660.2157345219</v>
+      <c r="K29">
+        <f>-(Q29-S29)/(10*LOG10(J29/1000))</f>
+        <v>2.6178931150127891</v>
       </c>
       <c r="L29">
-        <f t="shared" si="21"/>
-        <v>2.6178931150127891</v>
+        <f>1000*10^((S29-Q29)/(10*D$83))</f>
+        <v>24944.752182740842</v>
       </c>
       <c r="M29">
-        <f t="shared" si="22"/>
-        <v>24944.752182740842</v>
+        <v>33000</v>
       </c>
       <c r="N29">
-        <v>33000</v>
+        <f>ROUND(IF(P29,M29-J29,0),1)</f>
+        <v>2115</v>
       </c>
       <c r="O29">
-        <f t="shared" si="23"/>
-        <v>2115</v>
-      </c>
-      <c r="P29">
         <v>750</v>
       </c>
-      <c r="Q29" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29">
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
         <v>-80</v>
       </c>
-      <c r="S29" t="b">
-        <f>ABS('n estimate'!$O13)-'n estimate'!$P13&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T29">
+      <c r="R29" t="b">
+        <f>ABS('n estimate'!$N13)-'n estimate'!$O13&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>-41</v>
       </c>
-      <c r="U29" s="33">
+      <c r="T29" s="33">
         <v>1.0701624198831508</v>
       </c>
+      <c r="U29">
+        <f t="shared" si="7"/>
+        <v>2.7917380713255842</v>
+      </c>
       <c r="V29">
-        <f t="shared" si="24"/>
-        <v>2.7917380713255842</v>
+        <f>ABS(J29-L29)</f>
+        <v>5940.2478172591582</v>
       </c>
       <c r="W29">
-        <f t="shared" si="25"/>
-        <v>5940.2478172591582</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>273.84196342643634</v>
       </c>
-      <c r="Y29" s="34">
-        <f t="shared" si="9"/>
+      <c r="X29" s="34">
+        <f>ABS(J29-W29)</f>
         <v>30611.158036573564</v>
       </c>
-      <c r="Z29" s="34">
-        <f t="shared" si="27"/>
-        <v>4377775.2157345219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>69</v>
       </c>
@@ -34028,69 +33796,61 @@
         <v>-335657.725485856</v>
       </c>
       <c r="J30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>26865</v>
       </c>
-      <c r="K30" s="34">
-        <f t="shared" si="20"/>
-        <v>635788.67958734487</v>
+      <c r="K30">
+        <f>-(Q30-S30)/(10*LOG10(J30/1000))</f>
+        <v>2.0990957275429003</v>
       </c>
       <c r="L30">
-        <f t="shared" si="21"/>
-        <v>2.0990957275429003</v>
+        <f>1000*10^((S30-Q30)/(10*D$83))</f>
+        <v>11874.063846799863</v>
       </c>
       <c r="M30">
-        <f t="shared" si="22"/>
-        <v>11874.063846799863</v>
+        <v>29500</v>
       </c>
       <c r="N30">
-        <v>29500</v>
+        <f>ROUND(IF(P30,M30-J30,0),1)</f>
+        <v>2635</v>
       </c>
       <c r="O30">
-        <f t="shared" si="23"/>
-        <v>2635</v>
-      </c>
-      <c r="P30">
         <v>675</v>
       </c>
-      <c r="Q30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R30">
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
         <v>-71</v>
       </c>
-      <c r="S30" t="b">
-        <f>ABS('n estimate'!$O17)-'n estimate'!$P17&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T30">
+      <c r="R30" t="b">
+        <f>ABS('n estimate'!$N17)-'n estimate'!$O17&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>-41</v>
       </c>
-      <c r="U30" s="33">
+      <c r="T30" s="33">
         <v>1.0701624198831508</v>
       </c>
+      <c r="U30">
+        <f t="shared" si="7"/>
+        <v>2.7917380713255842</v>
+      </c>
       <c r="V30">
-        <f t="shared" si="24"/>
-        <v>2.7917380713255842</v>
+        <f>ABS(J30-L30)</f>
+        <v>14990.936153200137</v>
       </c>
       <c r="W30">
-        <f t="shared" si="25"/>
-        <v>14990.936153200137</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>74.98942093324564</v>
       </c>
-      <c r="Y30" s="34">
-        <f t="shared" si="9"/>
+      <c r="X30" s="34">
+        <f>ABS(J30-W30)</f>
         <v>26790.010579066755</v>
       </c>
-      <c r="Z30" s="34">
-        <f t="shared" si="27"/>
-        <v>608923.67958734487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>89</v>
       </c>
@@ -34119,69 +33879,61 @@
         <v>-335657.725485856</v>
       </c>
       <c r="J31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>23586</v>
       </c>
-      <c r="K31" s="34">
-        <f t="shared" si="20"/>
-        <v>788418.03577126772</v>
+      <c r="K31">
+        <f>-(Q31-S31)/(10*LOG10(J31/1000))</f>
+        <v>2.2583982092871304</v>
       </c>
       <c r="L31">
-        <f t="shared" si="21"/>
-        <v>2.2583982092871304</v>
+        <f>1000*10^((S31-Q31)/(10*D$83))</f>
+        <v>12894.940992032025</v>
       </c>
       <c r="M31">
-        <f t="shared" si="22"/>
-        <v>12894.940992032025</v>
+        <v>26062</v>
       </c>
       <c r="N31">
-        <v>26062</v>
+        <f>ROUND(IF(P31,M31-J31,0),1)</f>
+        <v>2476</v>
       </c>
       <c r="O31">
-        <f t="shared" si="23"/>
-        <v>2476</v>
-      </c>
-      <c r="P31">
         <v>645</v>
       </c>
-      <c r="Q31" t="b">
-        <v>1</v>
-      </c>
-      <c r="R31">
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
         <v>-72</v>
       </c>
-      <c r="S31" t="b">
-        <f>ABS('n estimate'!$O21)-'n estimate'!$P21&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T31">
+      <c r="R31" t="b">
+        <f>ABS('n estimate'!$N21)-'n estimate'!$O21&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S31">
         <v>-41</v>
       </c>
-      <c r="U31" s="33">
+      <c r="T31" s="33">
         <v>1.0701624198831508</v>
       </c>
+      <c r="U31">
+        <f t="shared" si="7"/>
+        <v>2.7917380713255842</v>
+      </c>
       <c r="V31">
-        <f t="shared" si="24"/>
-        <v>2.7917380713255842</v>
+        <f>ABS(J31-L31)</f>
+        <v>10691.059007967975</v>
       </c>
       <c r="W31">
-        <f t="shared" si="25"/>
-        <v>10691.059007967975</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>86.596432336006544</v>
       </c>
-      <c r="Y31" s="34">
-        <f t="shared" si="9"/>
+      <c r="X31" s="34">
+        <f>ABS(J31-W31)</f>
         <v>23499.403567663994</v>
       </c>
-      <c r="Z31" s="34">
-        <f t="shared" si="27"/>
-        <v>764832.03577126772</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>109</v>
       </c>
@@ -34210,69 +33962,61 @@
         <v>-335657.725485856</v>
       </c>
       <c r="J32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>13854</v>
       </c>
-      <c r="K32" s="34">
-        <f t="shared" si="20"/>
-        <v>977688.05750500527</v>
+      <c r="K32">
+        <f>-(Q32-S32)/(10*LOG10(J32/1000))</f>
+        <v>2.8031443279515993</v>
       </c>
       <c r="L32">
-        <f t="shared" si="21"/>
-        <v>2.8031443279515993</v>
+        <f>1000*10^((S32-Q32)/(10*D$83))</f>
+        <v>14003.588437230892</v>
       </c>
       <c r="M32">
-        <f t="shared" si="22"/>
-        <v>14003.588437230892</v>
+        <v>21000</v>
       </c>
       <c r="N32">
-        <v>21000</v>
+        <f>ROUND(IF(P32,M32-J32,0),1)</f>
+        <v>7146</v>
       </c>
       <c r="O32">
-        <f t="shared" si="23"/>
-        <v>7146</v>
-      </c>
-      <c r="P32">
         <v>630</v>
       </c>
-      <c r="Q32" t="b">
-        <v>1</v>
-      </c>
-      <c r="R32">
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
         <v>-73</v>
       </c>
-      <c r="S32" t="b">
-        <f>ABS('n estimate'!$O25)-'n estimate'!$P25&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T32">
+      <c r="R32" t="b">
+        <f>ABS('n estimate'!$N25)-'n estimate'!$O25&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>-41</v>
       </c>
-      <c r="U32" s="33">
+      <c r="T32" s="33">
         <v>1.0701624198831508</v>
       </c>
+      <c r="U32">
+        <f t="shared" si="7"/>
+        <v>2.7917380713255842</v>
+      </c>
       <c r="V32">
-        <f t="shared" si="24"/>
-        <v>2.7917380713255842</v>
+        <f>ABS(J32-L32)</f>
+        <v>149.58843723089194</v>
       </c>
       <c r="W32">
-        <f t="shared" si="25"/>
-        <v>149.58843723089194</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="Y32" s="34">
-        <f t="shared" si="9"/>
+      <c r="X32" s="34">
+        <f>ABS(J32-W32)</f>
         <v>13754</v>
       </c>
-      <c r="Z32" s="34">
-        <f t="shared" si="27"/>
-        <v>963834.05750500527</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>129</v>
       </c>
@@ -34301,69 +34045,61 @@
         <v>-335657.725485856</v>
       </c>
       <c r="J33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>5093</v>
       </c>
-      <c r="K33" s="34">
-        <f t="shared" si="20"/>
-        <v>413452.16604463843</v>
+      <c r="K33">
+        <f>-(Q33-S33)/(10*LOG10(J33/1000))</f>
+        <v>3.9605435030401877</v>
       </c>
       <c r="L33">
-        <f t="shared" si="21"/>
-        <v>3.9605435030401877</v>
+        <f>1000*10^((S33-Q33)/(10*D$83))</f>
+        <v>10068.375893069306</v>
       </c>
       <c r="M33">
-        <f t="shared" si="22"/>
-        <v>10068.375893069306</v>
+        <v>14062</v>
       </c>
       <c r="N33">
-        <v>14062</v>
+        <f>ROUND(IF(P33,M33-J33,0),1)</f>
+        <v>8969</v>
       </c>
       <c r="O33">
-        <f t="shared" si="23"/>
-        <v>8969</v>
-      </c>
-      <c r="P33">
         <v>750</v>
       </c>
-      <c r="Q33" t="b">
-        <v>1</v>
-      </c>
-      <c r="R33">
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
         <v>-69</v>
       </c>
-      <c r="S33" t="b">
-        <f>ABS('n estimate'!$O30)-'n estimate'!$P30&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T33">
+      <c r="R33" t="b">
+        <f>ABS('n estimate'!$N30)-'n estimate'!$O30&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>-41</v>
       </c>
-      <c r="U33" s="33">
+      <c r="T33" s="33">
         <v>1.0701624198831508</v>
       </c>
+      <c r="U33">
+        <f t="shared" si="7"/>
+        <v>2.7917380713255842</v>
+      </c>
       <c r="V33">
-        <f t="shared" si="24"/>
-        <v>2.7917380713255842</v>
+        <f>ABS(J33-L33)</f>
+        <v>4975.3758930693057</v>
       </c>
       <c r="W33">
-        <f t="shared" si="25"/>
-        <v>4975.3758930693057</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>56.234132519034915</v>
       </c>
-      <c r="Y33" s="34">
-        <f t="shared" si="9"/>
+      <c r="X33" s="34">
+        <f>ABS(J33-W33)</f>
         <v>5036.7658674809654</v>
       </c>
-      <c r="Z33" s="34">
-        <f t="shared" si="27"/>
-        <v>408359.16604463843</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>148</v>
       </c>
@@ -34392,69 +34128,61 @@
         <v>-335657.725485856</v>
       </c>
       <c r="J34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>6827</v>
       </c>
-      <c r="K34" s="34">
-        <f t="shared" si="20"/>
-        <v>73939.276035583491</v>
+      <c r="K34">
+        <f>-(Q34-S34)/(10*LOG10(J34/1000))</f>
+        <v>2.3974206548618429</v>
       </c>
       <c r="L34">
-        <f t="shared" si="21"/>
-        <v>2.3974206548618429</v>
+        <f>1000*10^((S34-Q34)/(10*D$83))</f>
+        <v>5204.746556534481</v>
       </c>
       <c r="M34">
-        <f t="shared" si="22"/>
-        <v>5204.746556534481</v>
+        <v>7187</v>
       </c>
       <c r="N34">
-        <v>7187</v>
+        <f>ROUND(IF(P34,M34-J34,0),1)</f>
+        <v>360</v>
       </c>
       <c r="O34">
-        <f t="shared" si="23"/>
-        <v>360</v>
-      </c>
-      <c r="P34">
         <v>540</v>
       </c>
-      <c r="Q34" t="b">
-        <v>1</v>
-      </c>
-      <c r="R34">
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
         <v>-61</v>
       </c>
-      <c r="S34" t="b">
-        <f>ABS('n estimate'!$O33)-'n estimate'!$P33&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T34">
+      <c r="R34" t="b">
+        <f>ABS('n estimate'!$N33)-'n estimate'!$O33&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>-41</v>
       </c>
-      <c r="U34" s="33">
+      <c r="T34" s="33">
         <v>1.0701624198831508</v>
       </c>
+      <c r="U34">
+        <f t="shared" si="7"/>
+        <v>2.7917380713255842</v>
+      </c>
       <c r="V34">
-        <f t="shared" si="24"/>
-        <v>2.7917380713255842</v>
+        <f>ABS(J34-L34)</f>
+        <v>1622.253443465519</v>
       </c>
       <c r="W34">
-        <f t="shared" si="25"/>
-        <v>1622.253443465519</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>17.782794100389236</v>
       </c>
-      <c r="Y34" s="34">
-        <f t="shared" si="9"/>
+      <c r="X34" s="34">
+        <f>ABS(J34-W34)</f>
         <v>6809.2172058996111</v>
       </c>
-      <c r="Z34" s="34">
-        <f t="shared" si="27"/>
-        <v>67112.276035583491</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>165</v>
       </c>
@@ -34483,69 +34211,61 @@
         <v>-335657.725485856</v>
       </c>
       <c r="J35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>13814</v>
       </c>
-      <c r="K35" s="34">
-        <f t="shared" si="20"/>
-        <v>3555190.4321533018</v>
+      <c r="K35">
+        <f>-(Q35-S35)/(10*LOG10(J35/1000))</f>
+        <v>3.3323995257946941</v>
       </c>
       <c r="L35">
-        <f t="shared" si="21"/>
-        <v>3.3323995257946941</v>
+        <f>1000*10^((S35-Q35)/(10*D$83))</f>
+        <v>22969.905813720943</v>
       </c>
       <c r="M35">
-        <f t="shared" si="22"/>
-        <v>22969.905813720943</v>
+        <v>19937</v>
       </c>
       <c r="N35">
-        <v>19937</v>
+        <f>ROUND(IF(P35,M35-J35,0),1)</f>
+        <v>6123</v>
       </c>
       <c r="O35">
-        <f t="shared" si="23"/>
-        <v>6123</v>
-      </c>
-      <c r="P35">
         <v>615</v>
       </c>
-      <c r="Q35" t="b">
-        <v>1</v>
-      </c>
-      <c r="R35">
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
         <v>-79</v>
       </c>
-      <c r="S35" t="b">
-        <f>ABS('n estimate'!$O38)-'n estimate'!$P38&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T35">
+      <c r="R35" t="b">
+        <f>ABS('n estimate'!$N38)-'n estimate'!$O38&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>-41</v>
       </c>
-      <c r="U35" s="33">
+      <c r="T35" s="33">
         <v>1.0701624198831508</v>
       </c>
+      <c r="U35">
+        <f t="shared" si="7"/>
+        <v>2.7917380713255842</v>
+      </c>
       <c r="V35">
-        <f t="shared" si="24"/>
-        <v>2.7917380713255842</v>
+        <f>ABS(J35-L35)</f>
+        <v>9155.9058137209431</v>
       </c>
       <c r="W35">
-        <f t="shared" si="25"/>
-        <v>9155.9058137209431</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>237.13737056616563</v>
       </c>
-      <c r="Y35" s="34">
-        <f t="shared" si="9"/>
+      <c r="X35" s="34">
+        <f>ABS(J35-W35)</f>
         <v>13576.862629433834</v>
       </c>
-      <c r="Z35" s="34">
-        <f t="shared" si="27"/>
-        <v>3541376.4321533018</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>189</v>
       </c>
@@ -34574,69 +34294,61 @@
         <v>-335657.725485856</v>
       </c>
       <c r="J36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>20235</v>
       </c>
-      <c r="K36" s="34">
-        <f t="shared" si="20"/>
-        <v>3555190.4321533018</v>
+      <c r="K36">
+        <f>-(Q36-S36)/(10*LOG10(J36/1000))</f>
+        <v>2.9094178581047858</v>
       </c>
       <c r="L36">
-        <f t="shared" si="21"/>
-        <v>2.9094178581047858</v>
+        <f>1000*10^((S36-Q36)/(10*D$83))</f>
+        <v>22969.905813720943</v>
       </c>
       <c r="M36">
-        <f t="shared" si="22"/>
-        <v>22969.905813720943</v>
+        <v>24875</v>
       </c>
       <c r="N36">
-        <v>24875</v>
+        <f>ROUND(IF(P36,M36-J36,0),1)</f>
+        <v>4640</v>
       </c>
       <c r="O36">
-        <f t="shared" si="23"/>
-        <v>4640</v>
-      </c>
-      <c r="P36">
         <v>1155</v>
       </c>
-      <c r="Q36" t="b">
-        <v>1</v>
-      </c>
-      <c r="R36">
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
         <v>-79</v>
       </c>
-      <c r="S36" t="b">
-        <f>ABS('n estimate'!$O43)-'n estimate'!$P43&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T36">
+      <c r="R36" t="b">
+        <f>ABS('n estimate'!$N43)-'n estimate'!$O43&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>-41</v>
       </c>
-      <c r="U36" s="33">
+      <c r="T36" s="33">
         <v>1.0701624198831508</v>
       </c>
+      <c r="U36">
+        <f t="shared" si="7"/>
+        <v>2.7917380713255842</v>
+      </c>
       <c r="V36">
-        <f t="shared" si="24"/>
-        <v>2.7917380713255842</v>
+        <f>ABS(J36-L36)</f>
+        <v>2734.9058137209431</v>
       </c>
       <c r="W36">
-        <f t="shared" si="25"/>
-        <v>2734.9058137209431</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>237.13737056616563</v>
       </c>
-      <c r="Y36" s="34">
-        <f t="shared" si="9"/>
+      <c r="X36" s="34">
+        <f>ABS(J36-W36)</f>
         <v>19997.862629433836</v>
       </c>
-      <c r="Z36" s="34">
-        <f t="shared" si="27"/>
-        <v>3534955.4321533018</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>210</v>
       </c>
@@ -34665,69 +34377,61 @@
         <v>-335657.725485856</v>
       </c>
       <c r="J37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>25051</v>
       </c>
-      <c r="K37" s="34">
-        <f t="shared" si="20"/>
-        <v>977688.05750500527</v>
+      <c r="K37">
+        <f>-(Q37-S37)/(10*LOG10(J37/1000))</f>
+        <v>2.2876341549620425</v>
       </c>
       <c r="L37">
-        <f t="shared" si="21"/>
-        <v>2.2876341549620425</v>
+        <f>1000*10^((S37-Q37)/(10*D$83))</f>
+        <v>14003.588437230892</v>
       </c>
       <c r="M37">
-        <f t="shared" si="22"/>
-        <v>14003.588437230892</v>
+        <v>25750</v>
       </c>
       <c r="N37">
-        <v>25750</v>
+        <f>ROUND(IF(P37,M37-J37,0),1)</f>
+        <v>699</v>
       </c>
       <c r="O37">
-        <f t="shared" si="23"/>
-        <v>699</v>
-      </c>
-      <c r="P37">
         <v>690</v>
       </c>
-      <c r="Q37" t="b">
-        <v>1</v>
-      </c>
-      <c r="R37">
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
         <v>-73</v>
       </c>
-      <c r="S37" t="b">
-        <f>ABS('n estimate'!$O48)-'n estimate'!$P48&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T37">
+      <c r="R37" t="b">
+        <f>ABS('n estimate'!$N48)-'n estimate'!$O48&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>-41</v>
       </c>
-      <c r="U37" s="33">
+      <c r="T37" s="33">
         <v>1.0701624198831508</v>
       </c>
+      <c r="U37">
+        <f t="shared" si="7"/>
+        <v>2.7917380713255842</v>
+      </c>
       <c r="V37">
-        <f t="shared" si="24"/>
-        <v>2.7917380713255842</v>
+        <f>ABS(J37-L37)</f>
+        <v>11047.411562769108</v>
       </c>
       <c r="W37">
-        <f t="shared" si="25"/>
-        <v>11047.411562769108</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="Y37" s="34">
-        <f t="shared" si="9"/>
+      <c r="X37" s="34">
+        <f>ABS(J37-W37)</f>
         <v>24951</v>
       </c>
-      <c r="Z37" s="34">
-        <f t="shared" si="27"/>
-        <v>952637.05750500527</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>234</v>
       </c>
@@ -34756,74 +34460,64 @@
         <v>-335657.725485856</v>
       </c>
       <c r="J38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>18715</v>
       </c>
-      <c r="K38" s="34">
-        <f t="shared" si="20"/>
-        <v>2866943.3320727255</v>
+      <c r="K38">
+        <f>-(Q38-S38)/(10*LOG10(J38/1000))</f>
+        <v>2.9083709903431472</v>
       </c>
       <c r="L38">
-        <f t="shared" si="21"/>
-        <v>2.9083709903431472</v>
+        <f>1000*10^((S38-Q38)/(10*D$83))</f>
+        <v>21151.405683487479</v>
       </c>
       <c r="M38">
-        <f t="shared" si="22"/>
-        <v>21151.405683487479</v>
+        <v>25500</v>
       </c>
       <c r="N38">
-        <v>25500</v>
+        <f>ROUND(IF(P38,M38-J38,0),1)</f>
+        <v>6785</v>
       </c>
       <c r="O38">
-        <f t="shared" si="23"/>
-        <v>6785</v>
-      </c>
-      <c r="P38">
         <v>930</v>
       </c>
-      <c r="Q38" t="b">
-        <v>1</v>
-      </c>
-      <c r="R38">
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
         <v>-78</v>
       </c>
-      <c r="S38" t="b">
-        <f>ABS('n estimate'!$O53)-'n estimate'!$P53&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T38">
+      <c r="R38" t="b">
+        <f>ABS('n estimate'!$N53)-'n estimate'!$O53&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>-41</v>
       </c>
-      <c r="U38" s="33">
+      <c r="T38" s="33">
         <v>1.0701624198831508</v>
       </c>
+      <c r="U38">
+        <f t="shared" si="7"/>
+        <v>2.7917380713255842</v>
+      </c>
       <c r="V38">
-        <f t="shared" si="24"/>
-        <v>2.7917380713255842</v>
+        <f>ABS(J38-L38)</f>
+        <v>2436.4056834874791</v>
       </c>
       <c r="W38">
-        <f t="shared" si="25"/>
-        <v>2436.4056834874791</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>205.35250264571462</v>
       </c>
-      <c r="Y38" s="34">
-        <f t="shared" si="9"/>
+      <c r="X38" s="34">
+        <f>ABS(J38-W38)</f>
         <v>18509.647497354286</v>
       </c>
-      <c r="Z38" s="34">
-        <f t="shared" si="27"/>
-        <v>2848228.3320727255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X39" s="34"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -34852,69 +34546,61 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J40">
-        <f t="shared" ref="J40:J51" si="28">ROUND(SQRT((G40-D40)^2+(H40-E40)^2+(I40-F40)^2),0)</f>
+        <f t="shared" ref="J40:J51" si="9">ROUND(SQRT((G40-D40)^2+(H40-E40)^2+(I40-F40)^2),0)</f>
         <v>10485</v>
       </c>
-      <c r="K40" s="34">
-        <f t="shared" ref="K40:K51" si="29">1000*10^((T40-R40)/(10*E$84))</f>
-        <v>135201.15217871332</v>
+      <c r="K40">
+        <f>-(Q40-S40)/(10*LOG10(J40/1000))</f>
+        <v>1.9596921987786817</v>
       </c>
       <c r="L40">
-        <f t="shared" ref="L40:L51" si="30">-(R40-T40)/(10*LOG10(J40/1000))</f>
-        <v>1.9596921987786817</v>
+        <f>1000*10^((S40-Q40)/(10*D$84))</f>
+        <v>5000.7347699297252</v>
       </c>
       <c r="M40">
-        <f>1000*10^((T40-R40)/(10*D$84))</f>
-        <v>5000.7347699297252</v>
+        <v>10625</v>
       </c>
       <c r="N40">
-        <v>10625</v>
+        <f>ROUND(IF(P40,M40-J40,0),1)</f>
+        <v>140</v>
       </c>
       <c r="O40">
-        <f t="shared" ref="O40:O51" si="31">ROUND(IF(Q40,N40-J40,0),1)</f>
-        <v>140</v>
-      </c>
-      <c r="P40">
         <v>630</v>
       </c>
-      <c r="Q40" t="b">
-        <v>1</v>
-      </c>
-      <c r="R40">
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
         <v>-60</v>
       </c>
-      <c r="S40" t="b">
-        <f>ABS('n estimate'!$O2)-'n estimate'!$P2&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T40">
+      <c r="R40" t="b">
+        <f>ABS('n estimate'!$N2)-'n estimate'!$O2&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S40">
         <v>-40</v>
       </c>
-      <c r="U40" s="33">
+      <c r="T40" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U40">
+        <f t="shared" ref="U40:U51" si="10">AVERAGE($K$40:$K$51)</f>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V40">
-        <f t="shared" ref="V40:V51" si="32">AVERAGE($L$40:$L$51)</f>
-        <v>2.8610918957761839</v>
+        <f>ABS(J40-L40)</f>
+        <v>5484.2652300702748</v>
       </c>
       <c r="W40">
-        <f t="shared" ref="W40:W51" si="33">ABS(J40-M40)</f>
-        <v>5484.2652300702748</v>
-      </c>
-      <c r="X40">
-        <f t="shared" ref="X40:X51" si="34">10^((T40-R40)/(10*1.6))</f>
+        <f t="shared" ref="W40:W51" si="11">10^((S40-Q40)/(10*1.6))</f>
         <v>17.782794100389236</v>
       </c>
-      <c r="Y40" s="34">
-        <f t="shared" si="9"/>
+      <c r="X40" s="34">
+        <f>ABS(J40-W40)</f>
         <v>10467.217205899611</v>
       </c>
-      <c r="Z40" s="34">
-        <f t="shared" ref="Z40:Z51" si="35">ABS(J40-K40)</f>
-        <v>124716.15217871332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>21</v>
       </c>
@@ -34943,69 +34629,61 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>8196</v>
       </c>
-      <c r="K41" s="34">
-        <f t="shared" si="29"/>
-        <v>135201.15217871332</v>
+      <c r="K41">
+        <f>-(Q41-S41)/(10*LOG10(J41/1000))</f>
+        <v>2.1891371845177341</v>
       </c>
       <c r="L41">
-        <f t="shared" si="30"/>
-        <v>2.1891371845177341</v>
+        <f>1000*10^((S41-Q41)/(10*D$84))</f>
+        <v>5000.7347699297252</v>
       </c>
       <c r="M41">
-        <f t="shared" ref="M41:M51" si="36">1000*10^((T41-R41)/(10*D$84))</f>
-        <v>5000.7347699297252</v>
+        <v>7187</v>
       </c>
       <c r="N41">
-        <v>7187</v>
+        <f>ROUND(IF(P41,M41-J41,0),1)</f>
+        <v>-1009</v>
       </c>
       <c r="O41">
-        <f t="shared" si="31"/>
-        <v>-1009</v>
-      </c>
-      <c r="P41">
         <v>540</v>
       </c>
-      <c r="Q41" t="b">
-        <v>1</v>
-      </c>
-      <c r="R41">
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
         <v>-60</v>
       </c>
-      <c r="S41" t="b">
-        <f>ABS('n estimate'!$O4)-'n estimate'!$P4&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T41">
+      <c r="R41" t="b">
+        <f>ABS('n estimate'!$N4)-'n estimate'!$O4&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>-40</v>
       </c>
-      <c r="U41" s="33">
+      <c r="T41" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U41">
+        <f t="shared" si="10"/>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V41">
-        <f t="shared" si="32"/>
-        <v>2.8610918957761839</v>
+        <f>ABS(J41-L41)</f>
+        <v>3195.2652300702748</v>
       </c>
       <c r="W41">
-        <f t="shared" si="33"/>
-        <v>3195.2652300702748</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>17.782794100389236</v>
       </c>
-      <c r="Y41" s="34">
-        <f t="shared" si="9"/>
+      <c r="X41" s="34">
+        <f>ABS(J41-W41)</f>
         <v>8178.2172058996111</v>
       </c>
-      <c r="Z41" s="34">
-        <f t="shared" si="35"/>
-        <v>127005.15217871332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>46</v>
       </c>
@@ -35034,69 +34712,61 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>18485</v>
       </c>
-      <c r="K42" s="34">
-        <f t="shared" si="29"/>
-        <v>271643927.68844068</v>
+      <c r="K42">
+        <f>-(Q42-S42)/(10*LOG10(J42/1000))</f>
+        <v>4.0258301845907827</v>
       </c>
       <c r="L42">
-        <f t="shared" si="30"/>
-        <v>4.0258301845907827</v>
+        <f>1000*10^((S42-Q42)/(10*D$84))</f>
+        <v>60608.877869355652</v>
       </c>
       <c r="M42">
-        <f t="shared" si="36"/>
-        <v>60608.877869355652</v>
+        <v>0</v>
       </c>
       <c r="N42">
+        <f>ROUND(IF(P42,M42-J42,0),1)</f>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="b">
-        <v>0</v>
-      </c>
-      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>-91</v>
       </c>
-      <c r="S42" t="b">
-        <f>ABS('n estimate'!$O9)-'n estimate'!$P9&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="R42" t="b">
+        <f>ABS('n estimate'!$N9)-'n estimate'!$O9&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S42">
         <v>-40</v>
       </c>
-      <c r="U42" s="33">
+      <c r="T42" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U42">
+        <f t="shared" si="10"/>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V42">
-        <f t="shared" si="32"/>
-        <v>2.8610918957761839</v>
+        <f>ABS(J42-L42)</f>
+        <v>42123.877869355652</v>
       </c>
       <c r="W42">
-        <f t="shared" si="33"/>
-        <v>42123.877869355652</v>
-      </c>
-      <c r="X42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>1539.926526059493</v>
       </c>
-      <c r="Y42" s="34">
-        <f t="shared" si="9"/>
+      <c r="X42" s="34">
+        <f>ABS(J42-W42)</f>
         <v>16945.073473940509</v>
       </c>
-      <c r="Z42" s="34">
-        <f t="shared" si="35"/>
-        <v>271625442.68844068</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>66</v>
       </c>
@@ -35125,69 +34795,61 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>24694</v>
       </c>
-      <c r="K43" s="34">
-        <f t="shared" si="29"/>
-        <v>130122662.91527426</v>
+      <c r="K43">
+        <f>-(Q43-S43)/(10*LOG10(J43/1000))</f>
+        <v>3.4468113539971603</v>
       </c>
       <c r="L43">
-        <f t="shared" si="30"/>
-        <v>3.4468113539971603</v>
+        <f>1000*10^((S43-Q43)/(10*D$84))</f>
+        <v>47608.135166613021</v>
       </c>
       <c r="M43">
-        <f t="shared" si="36"/>
-        <v>47608.135166613021</v>
+        <v>0</v>
       </c>
       <c r="N43">
+        <f>ROUND(IF(P43,M43-J43,0),1)</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="b">
-        <v>0</v>
-      </c>
-      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>-88</v>
       </c>
-      <c r="S43" t="b">
-        <f>ABS('n estimate'!$O14)-'n estimate'!$P14&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T43">
+      <c r="R43" t="b">
+        <f>ABS('n estimate'!$N14)-'n estimate'!$O14&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S43">
         <v>-40</v>
       </c>
-      <c r="U43" s="33">
+      <c r="T43" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U43">
+        <f t="shared" si="10"/>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V43">
-        <f t="shared" si="32"/>
-        <v>2.8610918957761839</v>
+        <f>ABS(J43-L43)</f>
+        <v>22914.135166613021</v>
       </c>
       <c r="W43">
-        <f t="shared" si="33"/>
-        <v>22914.135166613021</v>
-      </c>
-      <c r="X43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="Y43" s="34">
-        <f t="shared" si="9"/>
+      <c r="X43" s="34">
+        <f>ABS(J43-W43)</f>
         <v>23694</v>
       </c>
-      <c r="Z43" s="34">
-        <f t="shared" si="35"/>
-        <v>130097968.91527426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>86</v>
       </c>
@@ -35216,69 +34878,61 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>31665</v>
       </c>
-      <c r="K44" s="34">
-        <f t="shared" si="29"/>
-        <v>79662678.226537392</v>
+      <c r="K44">
+        <f>-(Q44-S44)/(10*LOG10(J44/1000))</f>
+        <v>3.0654823842455894</v>
       </c>
       <c r="L44">
-        <f t="shared" si="30"/>
-        <v>3.0654823842455894</v>
+        <f>1000*10^((S44-Q44)/(10*D$84))</f>
+        <v>40530.110537357294</v>
       </c>
       <c r="M44">
-        <f t="shared" si="36"/>
-        <v>40530.110537357294</v>
+        <v>0</v>
       </c>
       <c r="N44">
+        <f>ROUND(IF(P44,M44-J44,0),1)</f>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="b">
-        <v>0</v>
-      </c>
-      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>-86</v>
       </c>
-      <c r="S44" t="b">
-        <f>ABS('n estimate'!$O18)-'n estimate'!$P18&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T44">
+      <c r="R44" t="b">
+        <f>ABS('n estimate'!$N18)-'n estimate'!$O18&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S44">
         <v>-40</v>
       </c>
-      <c r="U44" s="33">
+      <c r="T44" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U44">
+        <f t="shared" si="10"/>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V44">
-        <f t="shared" si="32"/>
-        <v>2.8610918957761839</v>
+        <f>ABS(J44-L44)</f>
+        <v>8865.1105373572937</v>
       </c>
       <c r="W44">
-        <f t="shared" si="33"/>
-        <v>8865.1105373572937</v>
-      </c>
-      <c r="X44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>749.89420933245651</v>
       </c>
-      <c r="Y44" s="34">
-        <f t="shared" si="9"/>
+      <c r="X44" s="34">
+        <f>ABS(J44-W44)</f>
         <v>30915.105790667545</v>
       </c>
-      <c r="Z44" s="34">
-        <f t="shared" si="35"/>
-        <v>79631013.226537392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>106</v>
       </c>
@@ -35307,69 +34961,61 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>32134</v>
       </c>
-      <c r="K45" s="34">
-        <f t="shared" si="29"/>
-        <v>23361988.45388316</v>
+      <c r="K45">
+        <f>-(Q45-S45)/(10*LOG10(J45/1000))</f>
+        <v>2.7207005956470245</v>
       </c>
       <c r="L45">
-        <f t="shared" si="30"/>
-        <v>2.7207005956470245</v>
+        <f>1000*10^((S45-Q45)/(10*D$84))</f>
+        <v>27103.122808365973</v>
       </c>
       <c r="M45">
-        <f t="shared" si="36"/>
-        <v>27103.122808365973</v>
+        <v>33562</v>
       </c>
       <c r="N45">
-        <v>33562</v>
+        <f>ROUND(IF(P45,M45-J45,0),1)</f>
+        <v>1428</v>
       </c>
       <c r="O45">
-        <f t="shared" si="31"/>
-        <v>1428</v>
-      </c>
-      <c r="P45">
         <v>585</v>
       </c>
-      <c r="Q45" t="b">
-        <v>1</v>
-      </c>
-      <c r="R45">
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
         <v>-81</v>
       </c>
-      <c r="S45" t="b">
-        <f>ABS('n estimate'!$O22)-'n estimate'!$P22&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T45">
+      <c r="R45" t="b">
+        <f>ABS('n estimate'!$N22)-'n estimate'!$O22&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S45">
         <v>-40</v>
       </c>
-      <c r="U45" s="33">
+      <c r="T45" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U45">
+        <f t="shared" si="10"/>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V45">
-        <f t="shared" si="32"/>
-        <v>2.8610918957761839</v>
+        <f>ABS(J45-L45)</f>
+        <v>5030.8771916340265</v>
       </c>
       <c r="W45">
-        <f t="shared" si="33"/>
-        <v>5030.8771916340265</v>
-      </c>
-      <c r="X45">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>365.17412725483786</v>
       </c>
-      <c r="Y45" s="34">
-        <f t="shared" si="9"/>
+      <c r="X45" s="34">
+        <f>ABS(J45-W45)</f>
         <v>31768.825872745161</v>
       </c>
-      <c r="Z45" s="34">
-        <f t="shared" si="35"/>
-        <v>23329854.45388316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>126</v>
       </c>
@@ -35398,69 +35044,61 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>38858</v>
       </c>
-      <c r="K46" s="34">
-        <f t="shared" si="29"/>
-        <v>347175461.05009609</v>
+      <c r="K46">
+        <f>-(Q46-S46)/(10*LOG10(J46/1000))</f>
+        <v>3.2715092657016305</v>
       </c>
       <c r="L46">
-        <f t="shared" si="30"/>
-        <v>3.2715092657016305</v>
+        <f>1000*10^((S46-Q46)/(10*D$84))</f>
+        <v>65688.286677132128</v>
       </c>
       <c r="M46">
-        <f t="shared" si="36"/>
-        <v>65688.286677132128</v>
+        <v>0</v>
       </c>
       <c r="N46">
+        <f>ROUND(IF(P46,M46-J46,0),1)</f>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="b">
-        <v>0</v>
-      </c>
-      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>-92</v>
       </c>
-      <c r="S46" t="b">
-        <f>ABS('n estimate'!$O26)-'n estimate'!$P26&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T46">
+      <c r="R46" t="b">
+        <f>ABS('n estimate'!$N26)-'n estimate'!$O26&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S46">
         <v>-40</v>
       </c>
-      <c r="U46" s="33">
+      <c r="T46" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U46">
+        <f t="shared" si="10"/>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V46">
-        <f t="shared" si="32"/>
-        <v>2.8610918957761839</v>
+        <f>ABS(J46-L46)</f>
+        <v>26830.286677132128</v>
       </c>
       <c r="W46">
-        <f t="shared" si="33"/>
-        <v>26830.286677132128</v>
-      </c>
-      <c r="X46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>1778.2794100389244</v>
       </c>
-      <c r="Y46" s="34">
-        <f t="shared" si="9"/>
+      <c r="X46" s="34">
+        <f>ABS(J46-W46)</f>
         <v>37079.720589961078</v>
       </c>
-      <c r="Z46" s="34">
-        <f t="shared" si="35"/>
-        <v>347136603.05009609</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>266</v>
       </c>
@@ -35489,69 +35127,61 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J47">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>37505</v>
       </c>
-      <c r="K47" s="34">
-        <f t="shared" si="29"/>
-        <v>29857870.122634917</v>
+      <c r="K47">
+        <f>-(Q47-S47)/(10*LOG10(J47/1000))</f>
+        <v>2.6682097053862663</v>
       </c>
       <c r="L47">
-        <f t="shared" si="30"/>
-        <v>2.6682097053862663</v>
+        <f>1000*10^((S47-Q47)/(10*D$84))</f>
+        <v>29374.536593782177</v>
       </c>
       <c r="M47">
-        <f t="shared" si="36"/>
-        <v>29374.536593782177</v>
+        <v>40750</v>
       </c>
       <c r="N47">
-        <v>40750</v>
+        <f>ROUND(IF(P47,M47-J47,0),1)</f>
+        <v>3245</v>
       </c>
       <c r="O47">
-        <f t="shared" si="31"/>
-        <v>3245</v>
-      </c>
-      <c r="P47">
         <v>825</v>
       </c>
-      <c r="Q47" t="b">
-        <v>1</v>
-      </c>
-      <c r="R47">
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
         <v>-82</v>
       </c>
-      <c r="S47" t="b">
-        <f>ABS('n estimate'!$O57)-'n estimate'!$P57&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T47">
+      <c r="R47" t="b">
+        <f>ABS('n estimate'!$N57)-'n estimate'!$O57&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S47">
         <v>-40</v>
       </c>
-      <c r="U47" s="33">
+      <c r="T47" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U47">
+        <f t="shared" si="10"/>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V47">
-        <f t="shared" si="32"/>
-        <v>2.8610918957761839</v>
+        <f>ABS(J47-L47)</f>
+        <v>8130.4634062178229</v>
       </c>
       <c r="W47">
-        <f t="shared" si="33"/>
-        <v>8130.4634062178229</v>
-      </c>
-      <c r="X47">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>421.69650342858256</v>
       </c>
-      <c r="Y47" s="34">
-        <f t="shared" si="9"/>
+      <c r="X47" s="34">
+        <f>ABS(J47-W47)</f>
         <v>37083.303496571418</v>
       </c>
-      <c r="Z47" s="34">
-        <f t="shared" si="35"/>
-        <v>29820365.122634917</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>286</v>
       </c>
@@ -35580,69 +35210,61 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>31438</v>
       </c>
-      <c r="K48" s="34">
-        <f t="shared" si="29"/>
-        <v>79662678.226537392</v>
+      <c r="K48">
+        <f>-(Q48-S48)/(10*LOG10(J48/1000))</f>
+        <v>3.0718788061460063</v>
       </c>
       <c r="L48">
-        <f t="shared" si="30"/>
-        <v>3.0718788061460063</v>
+        <f>1000*10^((S48-Q48)/(10*D$84))</f>
+        <v>40530.110537357294</v>
       </c>
       <c r="M48">
-        <f t="shared" si="36"/>
-        <v>40530.110537357294</v>
+        <v>0</v>
       </c>
       <c r="N48">
+        <f>ROUND(IF(P48,M48-J48,0),1)</f>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="b">
-        <v>0</v>
-      </c>
-      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>-86</v>
       </c>
-      <c r="S48" t="b">
-        <f>ABS('n estimate'!$O61)-'n estimate'!$P61&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T48">
+      <c r="R48" t="b">
+        <f>ABS('n estimate'!$N61)-'n estimate'!$O61&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S48">
         <v>-40</v>
       </c>
-      <c r="U48" s="33">
+      <c r="T48" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U48">
+        <f t="shared" si="10"/>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V48">
-        <f t="shared" si="32"/>
-        <v>2.8610918957761839</v>
+        <f>ABS(J48-L48)</f>
+        <v>9092.1105373572937</v>
       </c>
       <c r="W48">
-        <f t="shared" si="33"/>
-        <v>9092.1105373572937</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>749.89420933245651</v>
       </c>
-      <c r="Y48" s="34">
-        <f t="shared" si="9"/>
+      <c r="X48" s="34">
+        <f>ABS(J48-W48)</f>
         <v>30688.105790667545</v>
       </c>
-      <c r="Z48" s="34">
-        <f t="shared" si="35"/>
-        <v>79631240.226537392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>306</v>
       </c>
@@ -35671,69 +35293,61 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J49">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>24103</v>
       </c>
-      <c r="K49" s="34">
-        <f t="shared" si="29"/>
-        <v>101813161.35843964</v>
+      <c r="K49">
+        <f>-(Q49-S49)/(10*LOG10(J49/1000))</f>
+        <v>3.4006933488454991</v>
       </c>
       <c r="L49">
-        <f t="shared" si="30"/>
-        <v>3.4006933488454991</v>
+        <f>1000*10^((S49-Q49)/(10*D$84))</f>
+        <v>43926.791150507139</v>
       </c>
       <c r="M49">
-        <f t="shared" si="36"/>
-        <v>43926.791150507139</v>
+        <v>0</v>
       </c>
       <c r="N49">
+        <f>ROUND(IF(P49,M49-J49,0),1)</f>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="b">
-        <v>0</v>
-      </c>
-      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>-87</v>
       </c>
-      <c r="S49" t="b">
-        <f>ABS('n estimate'!$O66)-'n estimate'!$P66&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T49">
+      <c r="R49" t="b">
+        <f>ABS('n estimate'!$N66)-'n estimate'!$O66&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S49">
         <v>-40</v>
       </c>
-      <c r="U49" s="33">
+      <c r="T49" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U49">
+        <f t="shared" si="10"/>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V49">
-        <f t="shared" si="32"/>
-        <v>2.8610918957761839</v>
+        <f>ABS(J49-L49)</f>
+        <v>19823.791150507139</v>
       </c>
       <c r="W49">
-        <f t="shared" si="33"/>
-        <v>19823.791150507139</v>
-      </c>
-      <c r="X49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>865.96432336006569</v>
       </c>
-      <c r="Y49" s="34">
-        <f t="shared" si="9"/>
+      <c r="X49" s="34">
+        <f>ABS(J49-W49)</f>
         <v>23237.035676639935</v>
       </c>
-      <c r="Z49" s="34">
-        <f t="shared" si="35"/>
-        <v>101789058.35843964</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>321</v>
       </c>
@@ -35762,69 +35376,61 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J50">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>23249</v>
       </c>
-      <c r="K50" s="34">
-        <f t="shared" si="29"/>
-        <v>360725.1902976479</v>
+      <c r="K50">
+        <f>-(Q50-S50)/(10*LOG10(J50/1000))</f>
+        <v>1.756434782541566</v>
       </c>
       <c r="L50">
-        <f t="shared" si="30"/>
-        <v>1.756434782541566</v>
+        <f>1000*10^((S50-Q50)/(10*D$84))</f>
+        <v>6899.864865822592</v>
       </c>
       <c r="M50">
-        <f t="shared" si="36"/>
-        <v>6899.864865822592</v>
+        <v>23062</v>
       </c>
       <c r="N50">
-        <v>23062</v>
+        <f>ROUND(IF(P50,M50-J50,0),1)</f>
+        <v>-187</v>
       </c>
       <c r="O50">
-        <f t="shared" si="31"/>
-        <v>-187</v>
-      </c>
-      <c r="P50">
         <v>825</v>
       </c>
-      <c r="Q50" t="b">
-        <v>1</v>
-      </c>
-      <c r="R50">
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
         <v>-64</v>
       </c>
-      <c r="S50" t="b">
-        <f>ABS('n estimate'!$O69)-'n estimate'!$P69&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T50">
+      <c r="R50" t="b">
+        <f>ABS('n estimate'!$N69)-'n estimate'!$O69&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S50">
         <v>-40</v>
       </c>
-      <c r="U50" s="33">
+      <c r="T50" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U50">
+        <f t="shared" si="10"/>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V50">
-        <f t="shared" si="32"/>
-        <v>2.8610918957761839</v>
+        <f>ABS(J50-L50)</f>
+        <v>16349.135134177408</v>
       </c>
       <c r="W50">
-        <f t="shared" si="33"/>
-        <v>16349.135134177408</v>
-      </c>
-      <c r="X50">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>31.622776601683803</v>
       </c>
-      <c r="Y50" s="34">
-        <f t="shared" si="9"/>
+      <c r="X50" s="34">
+        <f>ABS(J50-W50)</f>
         <v>23217.377223398315</v>
       </c>
-      <c r="Z50" s="34">
-        <f t="shared" si="35"/>
-        <v>337476.1902976479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>341</v>
       </c>
@@ -35853,74 +35459,64 @@
         <v>-330864.99700577703</v>
       </c>
       <c r="J51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>14481</v>
       </c>
-      <c r="K51" s="34">
-        <f t="shared" si="29"/>
-        <v>2567843.9529212578</v>
+      <c r="K51">
+        <f>-(Q51-S51)/(10*LOG10(J51/1000))</f>
+        <v>2.7567229389162633</v>
       </c>
       <c r="L51">
-        <f t="shared" si="30"/>
-        <v>2.7567229389162633</v>
+        <f>1000*10^((S51-Q51)/(10*D$84))</f>
+        <v>13135.726987987258</v>
       </c>
       <c r="M51">
-        <f t="shared" si="36"/>
-        <v>13135.726987987258</v>
+        <v>27437</v>
       </c>
       <c r="N51">
-        <v>27437</v>
+        <f>ROUND(IF(P51,M51-J51,0),1)</f>
+        <v>12956</v>
       </c>
       <c r="O51">
-        <f t="shared" si="31"/>
-        <v>12956</v>
-      </c>
-      <c r="P51">
         <v>630</v>
       </c>
-      <c r="Q51" t="b">
-        <v>1</v>
-      </c>
-      <c r="R51">
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
         <v>-72</v>
       </c>
-      <c r="S51" t="b">
-        <f>ABS('n estimate'!$O73)-'n estimate'!$P73&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T51">
+      <c r="R51" t="b">
+        <f>ABS('n estimate'!$N73)-'n estimate'!$O73&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S51">
         <v>-40</v>
       </c>
-      <c r="U51" s="33">
+      <c r="T51" s="33">
         <v>0.93853514883930855</v>
       </c>
+      <c r="U51">
+        <f t="shared" si="10"/>
+        <v>2.8610918957761839</v>
+      </c>
       <c r="V51">
-        <f t="shared" si="32"/>
-        <v>2.8610918957761839</v>
+        <f>ABS(J51-L51)</f>
+        <v>1345.2730120127417</v>
       </c>
       <c r="W51">
-        <f t="shared" si="33"/>
-        <v>1345.2730120127417</v>
-      </c>
-      <c r="X51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="Y51" s="34">
-        <f t="shared" si="9"/>
+      <c r="X51" s="34">
+        <f>ABS(J51-W51)</f>
         <v>14381</v>
       </c>
-      <c r="Z51" s="34">
-        <f t="shared" si="35"/>
-        <v>2553362.9529212578</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X52" s="34"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>22</v>
       </c>
@@ -35949,69 +35545,61 @@
         <v>-366209.69949084101</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J63" si="37">ROUND(SQRT((G53-D53)^2+(H53-E53)^2+(I53-F53)^2),0)</f>
+        <f t="shared" ref="J53:J63" si="12">ROUND(SQRT((G53-D53)^2+(H53-E53)^2+(I53-F53)^2),0)</f>
         <v>40599</v>
       </c>
-      <c r="K53" s="34">
-        <f t="shared" ref="K53:K63" si="38">1000*10^((T53-R53)/(10*E$85))</f>
-        <v>3000750.6769256485</v>
+      <c r="K53">
+        <f>-(Q53-S53)/(10*LOG10(J53/1000))</f>
+        <v>3.2327947902536351</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L63" si="39">-(R53-T53)/(10*LOG10(J53/1000))</f>
-        <v>3.2327947902536351</v>
+        <f>1000*10^((S53-Q53)/(10*D$85))</f>
+        <v>120272.16711047394</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:M63" si="40">1000*10^((T53-R53)/(10*D$85))</f>
-        <v>120272.16711047394</v>
+        <v>0</v>
       </c>
       <c r="N53">
+        <f>ROUND(IF(P53,M53-J53,0),1)</f>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" ref="O53:O63" si="41">ROUND(IF(Q53,N53-J53,0),1)</f>
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="b">
-        <v>0</v>
-      </c>
-      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>-93</v>
       </c>
-      <c r="S53" t="b">
-        <f>ABS('n estimate'!$O5)-'n estimate'!$P5&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T53">
+      <c r="R53" t="b">
+        <f>ABS('n estimate'!$N5)-'n estimate'!$O5&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S53">
         <v>-41</v>
       </c>
-      <c r="U53" s="33">
+      <c r="T53" s="33">
         <v>1.4954432495091083</v>
       </c>
-      <c r="V53">
+      <c r="U53">
         <f>D85</f>
         <v>2.4998015345946274</v>
       </c>
+      <c r="V53">
+        <f>ABS(J53-L53)</f>
+        <v>79673.167110473936</v>
+      </c>
       <c r="W53">
-        <f t="shared" ref="W53:W63" si="42">ABS(J53-M53)</f>
-        <v>79673.167110473936</v>
-      </c>
-      <c r="X53">
-        <f t="shared" ref="X53:X63" si="43">10^((T53-R53)/(10*1.6))</f>
+        <f t="shared" ref="W53:W63" si="13">10^((S53-Q53)/(10*1.6))</f>
         <v>1778.2794100389244</v>
       </c>
-      <c r="Y53" s="34">
-        <f t="shared" si="9"/>
+      <c r="X53" s="34">
+        <f>ABS(J53-W53)</f>
         <v>38820.720589961078</v>
       </c>
-      <c r="Z53" s="34">
-        <f t="shared" ref="Z53:Z63" si="44">ABS(J53-K53)</f>
-        <v>2960151.6769256485</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>161</v>
       </c>
@@ -36040,69 +35628,61 @@
         <v>-366209.69949084101</v>
       </c>
       <c r="J54">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>37356</v>
       </c>
-      <c r="K54" s="34">
-        <f t="shared" si="38"/>
-        <v>472924.96521224576</v>
+      <c r="K54">
+        <f>-(Q54-S54)/(10*LOG10(J54/1000))</f>
+        <v>2.5439460855391234</v>
       </c>
       <c r="L54">
-        <f t="shared" si="39"/>
-        <v>2.5439460855391234</v>
+        <f>1000*10^((S54-Q54)/(10*D$85))</f>
+        <v>39822.36310057027</v>
       </c>
       <c r="M54">
-        <f t="shared" si="40"/>
-        <v>39822.36310057027</v>
+        <v>41812</v>
       </c>
       <c r="N54">
-        <v>41812</v>
+        <f>ROUND(IF(P54,M54-J54,0),1)</f>
+        <v>4456</v>
       </c>
       <c r="O54">
-        <f t="shared" si="41"/>
-        <v>4456</v>
-      </c>
-      <c r="P54">
         <v>1710</v>
       </c>
-      <c r="Q54" t="b">
-        <v>1</v>
-      </c>
-      <c r="R54">
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
         <v>-81</v>
       </c>
-      <c r="S54" t="b">
-        <f>ABS('n estimate'!$O34)-'n estimate'!$P34&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T54">
+      <c r="R54" t="b">
+        <f>ABS('n estimate'!$N34)-'n estimate'!$O34&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S54">
         <v>-41</v>
       </c>
-      <c r="U54" s="33">
+      <c r="T54" s="33">
         <v>1.4954432495091083</v>
       </c>
-      <c r="V54">
+      <c r="U54">
         <f>D85</f>
         <v>2.4998015345946274</v>
       </c>
+      <c r="V54">
+        <f>ABS(J54-L54)</f>
+        <v>2466.36310057027</v>
+      </c>
       <c r="W54">
-        <f t="shared" si="42"/>
-        <v>2466.36310057027</v>
-      </c>
-      <c r="X54">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>316.22776601683825</v>
       </c>
-      <c r="Y54" s="34">
-        <f t="shared" si="9"/>
+      <c r="X54" s="34">
+        <f>ABS(J54-W54)</f>
         <v>37039.77223398316</v>
       </c>
-      <c r="Z54" s="34">
-        <f t="shared" si="44"/>
-        <v>435568.96521224576</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>186</v>
       </c>
@@ -36131,69 +35711,61 @@
         <v>-366209.69949084101</v>
       </c>
       <c r="J55">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>35694</v>
       </c>
-      <c r="K55" s="34">
-        <f t="shared" si="38"/>
-        <v>137985.60829402556</v>
+      <c r="K55">
+        <f>-(Q55-S55)/(10*LOG10(J55/1000))</f>
+        <v>2.0610652153270204</v>
       </c>
       <c r="L55">
-        <f t="shared" si="39"/>
-        <v>2.0610652153270204</v>
+        <f>1000*10^((S55-Q55)/(10*D$85))</f>
+        <v>19059.066367356161</v>
       </c>
       <c r="M55">
-        <f t="shared" si="40"/>
-        <v>19059.066367356161</v>
+        <v>35250</v>
       </c>
       <c r="N55">
-        <v>35250</v>
+        <f>ROUND(IF(P55,M55-J55,0),1)</f>
+        <v>-444</v>
       </c>
       <c r="O55">
-        <f t="shared" si="41"/>
-        <v>-444</v>
-      </c>
-      <c r="P55">
         <v>825</v>
       </c>
-      <c r="Q55" t="b">
-        <v>1</v>
-      </c>
-      <c r="R55">
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
         <v>-73</v>
       </c>
-      <c r="S55" t="b">
-        <f>ABS('n estimate'!$O40)-'n estimate'!$P40&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T55">
+      <c r="R55" t="b">
+        <f>ABS('n estimate'!$N40)-'n estimate'!$O40&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S55">
         <v>-41</v>
       </c>
-      <c r="U55" s="33">
+      <c r="T55" s="33">
         <v>1.4954432495091083</v>
       </c>
-      <c r="V55">
+      <c r="U55">
         <f>D85</f>
         <v>2.4998015345946274</v>
       </c>
+      <c r="V55">
+        <f>ABS(J55-L55)</f>
+        <v>16634.933632643839</v>
+      </c>
       <c r="W55">
-        <f t="shared" si="42"/>
-        <v>16634.933632643839</v>
-      </c>
-      <c r="X55">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="Y55" s="34">
-        <f t="shared" si="9"/>
+      <c r="X55" s="34">
+        <f>ABS(J55-W55)</f>
         <v>35594</v>
       </c>
-      <c r="Z55" s="34">
-        <f t="shared" si="44"/>
-        <v>102291.60829402556</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>206</v>
       </c>
@@ -36222,69 +35794,61 @@
         <v>-366209.69949084101</v>
       </c>
       <c r="J56">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>24466</v>
       </c>
-      <c r="K56" s="34">
-        <f t="shared" si="38"/>
-        <v>187747.17219647364</v>
+      <c r="K56">
+        <f>-(Q56-S56)/(10*LOG10(J56/1000))</f>
+        <v>2.448574583964823</v>
       </c>
       <c r="L56">
-        <f t="shared" si="39"/>
-        <v>2.448574583964823</v>
+        <f>1000*10^((S56-Q56)/(10*D$85))</f>
+        <v>22914.372762314859</v>
       </c>
       <c r="M56">
-        <f t="shared" si="40"/>
-        <v>22914.372762314859</v>
+        <v>24125</v>
       </c>
       <c r="N56">
-        <v>24125</v>
+        <f>ROUND(IF(P56,M56-J56,0),1)</f>
+        <v>-341</v>
       </c>
       <c r="O56">
-        <f t="shared" si="41"/>
-        <v>-341</v>
-      </c>
-      <c r="P56">
         <v>750</v>
       </c>
-      <c r="Q56" t="b">
-        <v>1</v>
-      </c>
-      <c r="R56">
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
         <v>-75</v>
       </c>
-      <c r="S56" t="b">
-        <f>ABS('n estimate'!$O44)-'n estimate'!$P44&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T56">
+      <c r="R56" t="b">
+        <f>ABS('n estimate'!$N44)-'n estimate'!$O44&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S56">
         <v>-41</v>
       </c>
-      <c r="U56" s="33">
+      <c r="T56" s="33">
         <v>1.4954432495091083</v>
       </c>
-      <c r="V56">
+      <c r="U56">
         <f>D85</f>
         <v>2.4998015345946274</v>
       </c>
+      <c r="V56">
+        <f>ABS(J56-L56)</f>
+        <v>1551.6272376851412</v>
+      </c>
       <c r="W56">
-        <f t="shared" si="42"/>
-        <v>1551.6272376851412</v>
-      </c>
-      <c r="X56">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>133.35214321633242</v>
       </c>
-      <c r="Y56" s="34">
-        <f t="shared" si="9"/>
+      <c r="X56" s="34">
+        <f>ABS(J56-W56)</f>
         <v>24332.647856783668</v>
       </c>
-      <c r="Z56" s="34">
-        <f t="shared" si="44"/>
-        <v>163281.17219647364</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>231</v>
       </c>
@@ -36313,69 +35877,61 @@
         <v>-366209.69949084101</v>
       </c>
       <c r="J57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>20962</v>
       </c>
-      <c r="K57" s="34">
-        <f t="shared" si="38"/>
-        <v>101413.12848295394</v>
+      <c r="K57">
+        <f>-(Q57-S57)/(10*LOG10(J57/1000))</f>
+        <v>2.2702631486302547</v>
       </c>
       <c r="L57">
-        <f t="shared" si="39"/>
-        <v>2.2702631486302547</v>
+        <f>1000*10^((S57-Q57)/(10*D$85))</f>
+        <v>15852.409078056324</v>
       </c>
       <c r="M57">
-        <f t="shared" si="40"/>
-        <v>15852.409078056324</v>
+        <v>21750</v>
       </c>
       <c r="N57">
-        <v>21750</v>
+        <f>ROUND(IF(P57,M57-J57,0),1)</f>
+        <v>788</v>
       </c>
       <c r="O57">
-        <f t="shared" si="41"/>
-        <v>788</v>
-      </c>
-      <c r="P57">
         <v>705</v>
       </c>
-      <c r="Q57" t="b">
-        <v>1</v>
-      </c>
-      <c r="R57">
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
         <v>-71</v>
       </c>
-      <c r="S57" t="b">
-        <f>ABS('n estimate'!$O49)-'n estimate'!$P49&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T57">
+      <c r="R57" t="b">
+        <f>ABS('n estimate'!$N49)-'n estimate'!$O49&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S57">
         <v>-41</v>
       </c>
-      <c r="U57" s="33">
+      <c r="T57" s="33">
         <v>1.4954432495091083</v>
       </c>
-      <c r="V57">
+      <c r="U57">
         <f>D85</f>
         <v>2.4998015345946274</v>
       </c>
+      <c r="V57">
+        <f>ABS(J57-L57)</f>
+        <v>5109.5909219436762</v>
+      </c>
       <c r="W57">
-        <f t="shared" si="42"/>
-        <v>5109.5909219436762</v>
-      </c>
-      <c r="X57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>74.98942093324564</v>
       </c>
-      <c r="Y57" s="34">
-        <f t="shared" si="9"/>
+      <c r="X57" s="34">
+        <f>ABS(J57-W57)</f>
         <v>20887.010579066755</v>
       </c>
-      <c r="Z57" s="34">
-        <f t="shared" si="44"/>
-        <v>80451.128482953936</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>251</v>
       </c>
@@ -36404,69 +35960,61 @@
         <v>-366209.69949084101</v>
       </c>
       <c r="J58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>7593</v>
       </c>
-      <c r="K58" s="34">
-        <f t="shared" si="38"/>
-        <v>118294.34569209364</v>
+      <c r="K58">
+        <f>-(Q58-S58)/(10*LOG10(J58/1000))</f>
+        <v>3.5210731690701942</v>
       </c>
       <c r="L58">
-        <f t="shared" si="39"/>
-        <v>3.5210731690701942</v>
+        <f>1000*10^((S58-Q58)/(10*D$85))</f>
+        <v>17381.948012267057</v>
       </c>
       <c r="M58">
-        <f t="shared" si="40"/>
-        <v>17381.948012267057</v>
+        <v>8250</v>
       </c>
       <c r="N58">
-        <v>8250</v>
+        <f>ROUND(IF(P58,M58-J58,0),1)</f>
+        <v>657</v>
       </c>
       <c r="O58">
-        <f t="shared" si="41"/>
-        <v>657</v>
-      </c>
-      <c r="P58">
         <v>750</v>
       </c>
-      <c r="Q58" t="b">
-        <v>1</v>
-      </c>
-      <c r="R58">
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
         <v>-72</v>
       </c>
-      <c r="S58" t="b">
-        <f>ABS('n estimate'!$O54)-'n estimate'!$P54&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T58">
+      <c r="R58" t="b">
+        <f>ABS('n estimate'!$N54)-'n estimate'!$O54&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S58">
         <v>-41</v>
       </c>
-      <c r="U58" s="33">
+      <c r="T58" s="33">
         <v>1.4954432495091083</v>
       </c>
-      <c r="V58">
+      <c r="U58">
         <f>D85</f>
         <v>2.4998015345946274</v>
       </c>
+      <c r="V58">
+        <f>ABS(J58-L58)</f>
+        <v>9788.9480122670575</v>
+      </c>
       <c r="W58">
-        <f t="shared" si="42"/>
-        <v>9788.9480122670575</v>
-      </c>
-      <c r="X58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>86.596432336006544</v>
       </c>
-      <c r="Y58" s="34">
-        <f t="shared" si="9"/>
+      <c r="X58" s="34">
+        <f>ABS(J58-W58)</f>
         <v>7506.4035676639933</v>
       </c>
-      <c r="Z58" s="34">
-        <f t="shared" si="44"/>
-        <v>110701.34569209364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>267</v>
       </c>
@@ -36495,69 +36043,61 @@
         <v>-366209.69949084101</v>
       </c>
       <c r="J59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>17575</v>
       </c>
-      <c r="K59" s="34">
-        <f t="shared" si="38"/>
-        <v>34514.814079949581</v>
+      <c r="K59">
+        <f>-(Q59-S59)/(10*LOG10(J59/1000))</f>
+        <v>1.8475448800817014</v>
       </c>
       <c r="L59">
-        <f t="shared" si="39"/>
-        <v>1.8475448800817014</v>
+        <f>1000*10^((S59-Q59)/(10*D$85))</f>
+        <v>8319.0367162060302</v>
       </c>
       <c r="M59">
-        <f t="shared" si="40"/>
-        <v>8319.0367162060302</v>
+        <v>18000</v>
       </c>
       <c r="N59">
-        <v>18000</v>
+        <f>ROUND(IF(P59,M59-J59,0),1)</f>
+        <v>425</v>
       </c>
       <c r="O59">
-        <f t="shared" si="41"/>
-        <v>425</v>
-      </c>
-      <c r="P59">
         <v>690</v>
       </c>
-      <c r="Q59" t="b">
-        <v>1</v>
-      </c>
-      <c r="R59">
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
         <v>-64</v>
       </c>
-      <c r="S59" t="b">
-        <f>ABS('n estimate'!$O58)-'n estimate'!$P58&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T59">
+      <c r="R59" t="b">
+        <f>ABS('n estimate'!$N58)-'n estimate'!$O58&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S59">
         <v>-41</v>
       </c>
-      <c r="U59" s="33">
+      <c r="T59" s="33">
         <v>1.4954432495091083</v>
       </c>
-      <c r="V59">
+      <c r="U59">
         <f>D85</f>
         <v>2.4998015345946274</v>
       </c>
+      <c r="V59">
+        <f>ABS(J59-L59)</f>
+        <v>9255.9632837939698</v>
+      </c>
       <c r="W59">
-        <f t="shared" si="42"/>
-        <v>9255.9632837939698</v>
-      </c>
-      <c r="X59">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>27.384196342643627</v>
       </c>
-      <c r="Y59" s="34">
-        <f t="shared" si="9"/>
+      <c r="X59" s="34">
+        <f>ABS(J59-W59)</f>
         <v>17547.615803657358</v>
       </c>
-      <c r="Z59" s="34">
-        <f t="shared" si="44"/>
-        <v>16939.814079949581</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>287</v>
       </c>
@@ -36586,69 +36126,61 @@
         <v>-366209.69949084101</v>
       </c>
       <c r="J60">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>19611</v>
       </c>
-      <c r="K60" s="34">
-        <f t="shared" si="38"/>
-        <v>137985.60829402556</v>
+      <c r="K60">
+        <f>-(Q60-S60)/(10*LOG10(J60/1000))</f>
+        <v>2.4758225489302204</v>
       </c>
       <c r="L60">
-        <f t="shared" si="39"/>
-        <v>2.4758225489302204</v>
+        <f>1000*10^((S60-Q60)/(10*D$85))</f>
+        <v>19059.066367356161</v>
       </c>
       <c r="M60">
-        <f t="shared" si="40"/>
-        <v>19059.066367356161</v>
+        <v>19937</v>
       </c>
       <c r="N60">
-        <v>19937</v>
+        <f>ROUND(IF(P60,M60-J60,0),1)</f>
+        <v>326</v>
       </c>
       <c r="O60">
-        <f t="shared" si="41"/>
-        <v>326</v>
-      </c>
-      <c r="P60">
         <v>990</v>
       </c>
-      <c r="Q60" t="b">
-        <v>1</v>
-      </c>
-      <c r="R60">
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
         <v>-73</v>
       </c>
-      <c r="S60" t="b">
-        <f>ABS('n estimate'!$O62)-'n estimate'!$P62&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T60">
+      <c r="R60" t="b">
+        <f>ABS('n estimate'!$N62)-'n estimate'!$O62&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S60">
         <v>-41</v>
       </c>
-      <c r="U60" s="33">
+      <c r="T60" s="33">
         <v>1.4954432495091083</v>
       </c>
-      <c r="V60">
+      <c r="U60">
         <f>D85</f>
         <v>2.4998015345946274</v>
       </c>
+      <c r="V60">
+        <f>ABS(J60-L60)</f>
+        <v>551.93363264383879</v>
+      </c>
       <c r="W60">
-        <f t="shared" si="42"/>
-        <v>551.93363264383879</v>
-      </c>
-      <c r="X60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="Y60" s="34">
-        <f t="shared" si="9"/>
+      <c r="X60" s="34">
+        <f>ABS(J60-W60)</f>
         <v>19511</v>
       </c>
-      <c r="Z60" s="34">
-        <f t="shared" si="44"/>
-        <v>118374.60829402556</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>307</v>
       </c>
@@ -36677,69 +36209,61 @@
         <v>-366209.69949084101</v>
       </c>
       <c r="J61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>24101</v>
       </c>
-      <c r="K61" s="34">
-        <f t="shared" si="38"/>
-        <v>187747.17219647364</v>
+      <c r="K61">
+        <f>-(Q61-S61)/(10*LOG10(J61/1000))</f>
+        <v>2.4601401887091416</v>
       </c>
       <c r="L61">
-        <f t="shared" si="39"/>
-        <v>2.4601401887091416</v>
+        <f>1000*10^((S61-Q61)/(10*D$85))</f>
+        <v>22914.372762314859</v>
       </c>
       <c r="M61">
-        <f t="shared" si="40"/>
-        <v>22914.372762314859</v>
+        <v>25937</v>
       </c>
       <c r="N61">
-        <v>25937</v>
+        <f>ROUND(IF(P61,M61-J61,0),1)</f>
+        <v>1836</v>
       </c>
       <c r="O61">
-        <f t="shared" si="41"/>
-        <v>1836</v>
-      </c>
-      <c r="P61">
         <v>540</v>
       </c>
-      <c r="Q61" t="b">
-        <v>1</v>
-      </c>
-      <c r="R61">
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
         <v>-75</v>
       </c>
-      <c r="S61" t="b">
-        <f>ABS('n estimate'!$O67)-'n estimate'!$P67&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T61">
+      <c r="R61" t="b">
+        <f>ABS('n estimate'!$N67)-'n estimate'!$O67&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S61">
         <v>-41</v>
       </c>
-      <c r="U61" s="33">
+      <c r="T61" s="33">
         <v>1.4954432495091083</v>
       </c>
-      <c r="V61">
+      <c r="U61">
         <f>D85</f>
         <v>2.4998015345946274</v>
       </c>
+      <c r="V61">
+        <f>ABS(J61-L61)</f>
+        <v>1186.6272376851412</v>
+      </c>
       <c r="W61">
-        <f t="shared" si="42"/>
-        <v>1186.6272376851412</v>
-      </c>
-      <c r="X61">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>133.35214321633242</v>
       </c>
-      <c r="Y61" s="34">
-        <f t="shared" si="9"/>
+      <c r="X61" s="34">
+        <f>ABS(J61-W61)</f>
         <v>23967.647856783668</v>
       </c>
-      <c r="Z61" s="34">
-        <f t="shared" si="44"/>
-        <v>163646.17219647364</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>322</v>
       </c>
@@ -36768,69 +36292,61 @@
         <v>-366209.69949084101</v>
       </c>
       <c r="J62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>17730</v>
       </c>
-      <c r="K62" s="34">
-        <f t="shared" si="38"/>
-        <v>34514.814079949581</v>
+      <c r="K62">
+        <f>-(Q62-S62)/(10*LOG10(J62/1000))</f>
+        <v>1.8419027067134017</v>
       </c>
       <c r="L62">
-        <f t="shared" si="39"/>
-        <v>1.8419027067134017</v>
+        <f>1000*10^((S62-Q62)/(10*D$85))</f>
+        <v>8319.0367162060302</v>
       </c>
       <c r="M62">
-        <f t="shared" si="40"/>
-        <v>8319.0367162060302</v>
+        <v>21250</v>
       </c>
       <c r="N62">
-        <v>21250</v>
+        <f>ROUND(IF(P62,M62-J62,0),1)</f>
+        <v>3520</v>
       </c>
       <c r="O62">
-        <f t="shared" si="41"/>
-        <v>3520</v>
-      </c>
-      <c r="P62">
         <v>2250</v>
       </c>
-      <c r="Q62" t="b">
-        <v>1</v>
-      </c>
-      <c r="R62">
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
         <v>-64</v>
       </c>
-      <c r="S62" t="b">
-        <f>ABS('n estimate'!$O70)-'n estimate'!$P70&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T62">
+      <c r="R62" t="b">
+        <f>ABS('n estimate'!$N70)-'n estimate'!$O70&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S62">
         <v>-41</v>
       </c>
-      <c r="U62" s="33">
+      <c r="T62" s="33">
         <v>1.4954432495091083</v>
       </c>
-      <c r="V62">
+      <c r="U62">
         <f>D85</f>
         <v>2.4998015345946274</v>
       </c>
+      <c r="V62">
+        <f>ABS(J62-L62)</f>
+        <v>9410.9632837939698</v>
+      </c>
       <c r="W62">
-        <f t="shared" si="42"/>
-        <v>9410.9632837939698</v>
-      </c>
-      <c r="X62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>27.384196342643627</v>
       </c>
-      <c r="Y62" s="34">
-        <f t="shared" si="9"/>
+      <c r="X62" s="34">
+        <f>ABS(J62-W62)</f>
         <v>17702.615803657358</v>
       </c>
-      <c r="Z62" s="34">
-        <f t="shared" si="44"/>
-        <v>16784.814079949581</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>342</v>
       </c>
@@ -36859,74 +36375,64 @@
         <v>-366209.69949084101</v>
       </c>
       <c r="J63">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>31831</v>
       </c>
-      <c r="K63" s="34">
-        <f t="shared" si="38"/>
-        <v>643475.2578726667</v>
+      <c r="K63">
+        <f>-(Q63-S63)/(10*LOG10(J63/1000))</f>
+        <v>2.794689563321386</v>
       </c>
       <c r="L63">
-        <f t="shared" si="39"/>
-        <v>2.794689563321386</v>
+        <f>1000*10^((S63-Q63)/(10*D$85))</f>
+        <v>47877.711047044359</v>
       </c>
       <c r="M63">
-        <f t="shared" si="40"/>
-        <v>47877.711047044359</v>
+        <v>37937</v>
       </c>
       <c r="N63">
-        <v>37937</v>
+        <f>ROUND(IF(P63,M63-J63,0),1)</f>
+        <v>6106</v>
       </c>
       <c r="O63">
-        <f t="shared" si="41"/>
-        <v>6106</v>
-      </c>
-      <c r="P63">
         <v>1005</v>
       </c>
-      <c r="Q63" t="b">
-        <v>1</v>
-      </c>
-      <c r="R63">
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
         <v>-83</v>
       </c>
-      <c r="S63" t="b">
-        <f>ABS('n estimate'!$O74)-'n estimate'!$P74&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T63">
+      <c r="R63" t="b">
+        <f>ABS('n estimate'!$N74)-'n estimate'!$O74&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S63">
         <v>-41</v>
       </c>
-      <c r="U63" s="33">
+      <c r="T63" s="33">
         <v>1.4954432495091083</v>
       </c>
-      <c r="V63">
+      <c r="U63">
         <f>D85</f>
         <v>2.4998015345946274</v>
       </c>
+      <c r="V63">
+        <f>ABS(J63-L63)</f>
+        <v>16046.711047044359</v>
+      </c>
       <c r="W63">
-        <f t="shared" si="42"/>
-        <v>16046.711047044359</v>
-      </c>
-      <c r="X63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>421.69650342858256</v>
       </c>
-      <c r="Y63" s="34">
-        <f t="shared" si="9"/>
+      <c r="X63" s="34">
+        <f>ABS(J63-W63)</f>
         <v>31409.303496571418</v>
       </c>
-      <c r="Z63" s="34">
-        <f t="shared" si="44"/>
-        <v>611644.2578726667</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K64" s="34"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X64" s="34"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>23</v>
       </c>
@@ -36955,69 +36461,61 @@
         <v>-324977.11831615499</v>
       </c>
       <c r="J65">
-        <f t="shared" ref="J65:J75" si="45">ROUND(SQRT((G65-D65)^2+(H65-E65)^2+(I65-F65)^2),0)</f>
+        <f t="shared" ref="J65:J75" si="14">ROUND(SQRT((G65-D65)^2+(H65-E65)^2+(I65-F65)^2),0)</f>
         <v>30157</v>
       </c>
-      <c r="K65" s="34">
-        <f t="shared" ref="K65:K75" si="46">1000*10^((T65-R65)/(10*E$86))</f>
-        <v>1237871.3466421324</v>
+      <c r="K65">
+        <f>-(Q65-S65)/(10*LOG10(J65/1000))</f>
+        <v>2.2982474424882873</v>
       </c>
       <c r="L65">
-        <f t="shared" ref="L65:L75" si="47">-(R65-T65)/(10*LOG10(J65/1000))</f>
-        <v>2.2982474424882873</v>
+        <f>1000*10^((S65-Q65)/(10*D$86))</f>
+        <v>25527.997724191584</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:M75" si="48">1000*10^((T65-R65)/(10*D$86))</f>
-        <v>25527.997724191584</v>
+        <v>31187</v>
       </c>
       <c r="N65">
-        <v>31187</v>
+        <f>ROUND(IF(P65,M65-J65,0),1)</f>
+        <v>1030</v>
       </c>
       <c r="O65">
-        <f t="shared" ref="O65:O75" si="49">ROUND(IF(Q65,N65-J65,0),1)</f>
-        <v>1030</v>
-      </c>
-      <c r="P65">
         <v>570</v>
       </c>
-      <c r="Q65" t="b">
-        <v>1</v>
-      </c>
-      <c r="R65">
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
         <v>-75</v>
       </c>
-      <c r="S65" t="b">
-        <f>ABS('n estimate'!$O6)-'n estimate'!$P6&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T65">
+      <c r="R65" t="b">
+        <f>ABS('n estimate'!$N6)-'n estimate'!$O6&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S65">
         <v>-41</v>
       </c>
-      <c r="U65" s="33">
+      <c r="T65" s="33">
         <v>1.0993717215589127</v>
       </c>
-      <c r="V65">
+      <c r="U65">
         <f>D86</f>
         <v>2.4164602120304619</v>
       </c>
+      <c r="V65">
+        <f>ABS(J65-L65)</f>
+        <v>4629.002275808416</v>
+      </c>
       <c r="W65">
-        <f t="shared" ref="W65:W75" si="50">ABS(J65-M65)</f>
-        <v>4629.002275808416</v>
-      </c>
-      <c r="X65">
-        <f t="shared" ref="X65:X75" si="51">10^((T65-R65)/(10*1.6))</f>
+        <f t="shared" ref="W65:W75" si="15">10^((S65-Q65)/(10*1.6))</f>
         <v>133.35214321633242</v>
       </c>
-      <c r="Y65" s="34">
-        <f t="shared" si="9"/>
+      <c r="X65" s="34">
+        <f>ABS(J65-W65)</f>
         <v>30023.647856783668</v>
       </c>
-      <c r="Z65" s="34">
-        <f t="shared" ref="Z65:Z75" si="52">ABS(J65-K65)</f>
-        <v>1207714.3466421324</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>47</v>
       </c>
@@ -37046,69 +36544,61 @@
         <v>-324977.11831615499</v>
       </c>
       <c r="J66">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>23979</v>
       </c>
-      <c r="K66" s="34">
-        <f t="shared" si="46"/>
-        <v>123624.35015225281</v>
+      <c r="K66">
+        <f>-(Q66-S66)/(10*LOG10(J66/1000))</f>
+        <v>1.6668707161748713</v>
       </c>
       <c r="L66">
-        <f t="shared" si="47"/>
-        <v>1.6668707161748713</v>
+        <f>1000*10^((S66-Q66)/(10*D$86))</f>
+        <v>8949.6376108489058</v>
       </c>
       <c r="M66">
-        <f t="shared" si="48"/>
-        <v>8949.6376108489058</v>
+        <v>25187</v>
       </c>
       <c r="N66">
-        <v>25187</v>
+        <f>ROUND(IF(P66,M66-J66,0),1)</f>
+        <v>1208</v>
       </c>
       <c r="O66">
-        <f t="shared" si="49"/>
-        <v>1208</v>
-      </c>
-      <c r="P66">
         <v>645</v>
       </c>
-      <c r="Q66" t="b">
-        <v>1</v>
-      </c>
-      <c r="R66">
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
         <v>-64</v>
       </c>
-      <c r="S66" t="b">
-        <f>ABS('n estimate'!$O10)-'n estimate'!$P10&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T66">
+      <c r="R66" t="b">
+        <f>ABS('n estimate'!$N10)-'n estimate'!$O10&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S66">
         <v>-41</v>
       </c>
-      <c r="U66" s="33">
+      <c r="T66" s="33">
         <v>1.0993717215589127</v>
       </c>
-      <c r="V66">
+      <c r="U66">
         <f>D86</f>
         <v>2.4164602120304619</v>
       </c>
+      <c r="V66">
+        <f>ABS(J66-L66)</f>
+        <v>15029.362389151094</v>
+      </c>
       <c r="W66">
-        <f t="shared" si="50"/>
-        <v>15029.362389151094</v>
-      </c>
-      <c r="X66">
-        <f t="shared" si="51"/>
+        <f t="shared" si="15"/>
         <v>27.384196342643627</v>
       </c>
-      <c r="Y66" s="34">
-        <f t="shared" si="9"/>
+      <c r="X66" s="34">
+        <f>ABS(J66-W66)</f>
         <v>23951.615803657358</v>
       </c>
-      <c r="Z66" s="34">
-        <f t="shared" si="52"/>
-        <v>99645.350152252809</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -37137,69 +36627,61 @@
         <v>-324977.11831615499</v>
       </c>
       <c r="J67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>18502</v>
       </c>
-      <c r="K67" s="34">
-        <f t="shared" si="46"/>
-        <v>231732.61098059727</v>
+      <c r="K67">
+        <f>-(Q67-S67)/(10*LOG10(J67/1000))</f>
+        <v>2.0517374372469241</v>
       </c>
       <c r="L67">
-        <f t="shared" si="47"/>
-        <v>2.0517374372469241</v>
+        <f>1000*10^((S67-Q67)/(10*D$86))</f>
+        <v>11911.158044929898</v>
       </c>
       <c r="M67">
-        <f t="shared" si="48"/>
-        <v>11911.158044929898</v>
+        <v>20375</v>
       </c>
       <c r="N67">
-        <v>20375</v>
+        <f>ROUND(IF(P67,M67-J67,0),1)</f>
+        <v>1873</v>
       </c>
       <c r="O67">
-        <f t="shared" si="49"/>
-        <v>1873</v>
-      </c>
-      <c r="P67">
         <v>615</v>
       </c>
-      <c r="Q67" t="b">
-        <v>1</v>
-      </c>
-      <c r="R67">
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
         <v>-67</v>
       </c>
-      <c r="S67" t="b">
-        <f>ABS('n estimate'!$O15)-'n estimate'!$P15&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T67">
+      <c r="R67" t="b">
+        <f>ABS('n estimate'!$N15)-'n estimate'!$O15&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S67">
         <v>-41</v>
       </c>
-      <c r="U67" s="33">
+      <c r="T67" s="33">
         <v>1.0993717215589127</v>
       </c>
-      <c r="V67">
+      <c r="U67">
         <f>D86</f>
         <v>2.4164602120304619</v>
       </c>
+      <c r="V67">
+        <f>ABS(J67-L67)</f>
+        <v>6590.8419550701019</v>
+      </c>
       <c r="W67">
-        <f t="shared" si="50"/>
-        <v>6590.8419550701019</v>
-      </c>
-      <c r="X67">
-        <f t="shared" si="51"/>
+        <f t="shared" si="15"/>
         <v>42.169650342858247</v>
       </c>
-      <c r="Y67" s="34">
-        <f t="shared" ref="Y67:Y75" si="53">ABS(J67-X67)</f>
+      <c r="X67" s="34">
+        <f>ABS(J67-W67)</f>
         <v>18459.830349657143</v>
       </c>
-      <c r="Z67" s="34">
-        <f t="shared" si="52"/>
-        <v>213230.61098059727</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>87</v>
       </c>
@@ -37228,69 +36710,61 @@
         <v>-324977.11831615499</v>
       </c>
       <c r="J68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>13489</v>
       </c>
-      <c r="K68" s="34">
-        <f t="shared" si="46"/>
-        <v>535588.6100501481</v>
+      <c r="K68">
+        <f>-(Q68-S68)/(10*LOG10(J68/1000))</f>
+        <v>2.6549148226791832</v>
       </c>
       <c r="L68">
-        <f t="shared" si="47"/>
-        <v>2.6549148226791832</v>
+        <f>1000*10^((S68-Q68)/(10*D$86))</f>
+        <v>17437.546142260289</v>
       </c>
       <c r="M68">
-        <f t="shared" si="48"/>
-        <v>17437.546142260289</v>
+        <v>0</v>
       </c>
       <c r="N68">
+        <f>ROUND(IF(P68,M68-J68,0),1)</f>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="b">
-        <v>0</v>
-      </c>
-      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>-71</v>
       </c>
-      <c r="S68" t="b">
-        <f>ABS('n estimate'!$O19)-'n estimate'!$P19&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T68">
+      <c r="R68" t="b">
+        <f>ABS('n estimate'!$N19)-'n estimate'!$O19&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S68">
         <v>-41</v>
       </c>
-      <c r="U68" s="33">
+      <c r="T68" s="33">
         <v>1.0993717215589127</v>
       </c>
-      <c r="V68">
+      <c r="U68">
         <f>D86</f>
         <v>2.4164602120304619</v>
       </c>
+      <c r="V68">
+        <f>ABS(J68-L68)</f>
+        <v>3948.5461422602893</v>
+      </c>
       <c r="W68">
-        <f t="shared" si="50"/>
-        <v>3948.5461422602893</v>
-      </c>
-      <c r="X68">
-        <f t="shared" si="51"/>
+        <f t="shared" si="15"/>
         <v>74.98942093324564</v>
       </c>
-      <c r="Y68" s="34">
-        <f t="shared" si="53"/>
+      <c r="X68" s="34">
+        <f>ABS(J68-W68)</f>
         <v>13414.010579066755</v>
       </c>
-      <c r="Z68" s="34">
-        <f t="shared" si="52"/>
-        <v>522099.6100501481</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>107</v>
       </c>
@@ -37319,69 +36793,61 @@
         <v>-324977.11831615499</v>
       </c>
       <c r="J69">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>5861</v>
       </c>
-      <c r="K69" s="34">
-        <f t="shared" si="46"/>
-        <v>4332.3876678868719</v>
+      <c r="K69">
+        <f>-(Q69-S69)/(10*LOG10(J69/1000))</f>
+        <v>0.91149189548368481</v>
       </c>
       <c r="L69">
-        <f t="shared" si="47"/>
-        <v>0.91149189548368481</v>
+        <f>1000*10^((S69-Q69)/(10*D$86))</f>
+        <v>1948.4080697437621</v>
       </c>
       <c r="M69">
-        <f t="shared" si="48"/>
-        <v>1948.4080697437621</v>
+        <v>6250</v>
       </c>
       <c r="N69">
-        <v>6250</v>
+        <f>ROUND(IF(P69,M69-J69,0),1)</f>
+        <v>389</v>
       </c>
       <c r="O69">
-        <f t="shared" si="49"/>
-        <v>389</v>
-      </c>
-      <c r="P69">
         <v>690</v>
       </c>
-      <c r="Q69" t="b">
-        <v>1</v>
-      </c>
-      <c r="R69">
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
         <v>-48</v>
       </c>
-      <c r="S69" t="b">
-        <f>ABS('n estimate'!$O23)-'n estimate'!$P23&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T69">
+      <c r="R69" t="b">
+        <f>ABS('n estimate'!$N23)-'n estimate'!$O23&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S69">
         <v>-41</v>
       </c>
-      <c r="U69" s="33">
+      <c r="T69" s="33">
         <v>1.0993717215589127</v>
       </c>
-      <c r="V69">
+      <c r="U69">
         <f>D86</f>
         <v>2.4164602120304619</v>
       </c>
+      <c r="V69">
+        <f>ABS(J69-L69)</f>
+        <v>3912.5919302562379</v>
+      </c>
       <c r="W69">
-        <f t="shared" si="50"/>
-        <v>3912.5919302562379</v>
-      </c>
-      <c r="X69">
-        <f t="shared" si="51"/>
+        <f t="shared" si="15"/>
         <v>2.7384196342643614</v>
       </c>
-      <c r="Y69" s="34">
-        <f t="shared" si="53"/>
+      <c r="X69" s="34">
+        <f>ABS(J69-W69)</f>
         <v>5858.2615803657354</v>
       </c>
-      <c r="Z69" s="34">
-        <f t="shared" si="52"/>
-        <v>1528.6123321131281</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>127</v>
       </c>
@@ -37410,69 +36876,61 @@
         <v>-324977.11831615499</v>
       </c>
       <c r="J70">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>6186</v>
       </c>
-      <c r="K70" s="34">
-        <f t="shared" si="46"/>
-        <v>123624.35015225281</v>
+      <c r="K70">
+        <f>-(Q70-S70)/(10*LOG10(J70/1000))</f>
+        <v>2.9062056899566331</v>
       </c>
       <c r="L70">
-        <f t="shared" si="47"/>
-        <v>2.9062056899566331</v>
+        <f>1000*10^((S70-Q70)/(10*D$86))</f>
+        <v>8949.6376108489058</v>
       </c>
       <c r="M70">
-        <f t="shared" si="48"/>
-        <v>8949.6376108489058</v>
+        <v>9562</v>
       </c>
       <c r="N70">
-        <v>9562</v>
+        <f>ROUND(IF(P70,M70-J70,0),1)</f>
+        <v>3376</v>
       </c>
       <c r="O70">
-        <f t="shared" si="49"/>
-        <v>3376</v>
-      </c>
-      <c r="P70">
         <v>720</v>
       </c>
-      <c r="Q70" t="b">
-        <v>1</v>
-      </c>
-      <c r="R70">
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
         <v>-64</v>
       </c>
-      <c r="S70" t="b">
-        <f>ABS('n estimate'!$O28)-'n estimate'!$P28&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T70">
+      <c r="R70" t="b">
+        <f>ABS('n estimate'!$N28)-'n estimate'!$O28&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S70">
         <v>-41</v>
       </c>
-      <c r="U70" s="33">
+      <c r="T70" s="33">
         <v>1.0993717215589127</v>
       </c>
-      <c r="V70">
+      <c r="U70">
         <f>D86</f>
         <v>2.4164602120304619</v>
       </c>
+      <c r="V70">
+        <f>ABS(J70-L70)</f>
+        <v>2763.6376108489058</v>
+      </c>
       <c r="W70">
-        <f t="shared" si="50"/>
-        <v>2763.6376108489058</v>
-      </c>
-      <c r="X70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="15"/>
         <v>27.384196342643627</v>
       </c>
-      <c r="Y70" s="34">
-        <f t="shared" si="53"/>
+      <c r="X70" s="34">
+        <f>ABS(J70-W70)</f>
         <v>6158.6158036573561</v>
       </c>
-      <c r="Z70" s="34">
-        <f t="shared" si="52"/>
-        <v>117438.35015225281</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>146</v>
       </c>
@@ -37501,69 +36959,61 @@
         <v>-324977.11831615499</v>
       </c>
       <c r="J71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>14170</v>
       </c>
-      <c r="K71" s="34">
-        <f t="shared" si="46"/>
-        <v>434380.46732499922</v>
+      <c r="K71">
+        <f>-(Q71-S71)/(10*LOG10(J71/1000))</f>
+        <v>2.5187388738524912</v>
       </c>
       <c r="L71">
-        <f t="shared" si="47"/>
-        <v>2.5187388738524912</v>
+        <f>1000*10^((S71-Q71)/(10*D$86))</f>
+        <v>15852.673833330862</v>
       </c>
       <c r="M71">
-        <f t="shared" si="48"/>
-        <v>15852.673833330862</v>
+        <v>16500</v>
       </c>
       <c r="N71">
-        <v>16500</v>
+        <f>ROUND(IF(P71,M71-J71,0),1)</f>
+        <v>2330</v>
       </c>
       <c r="O71">
-        <f t="shared" si="49"/>
-        <v>2330</v>
-      </c>
-      <c r="P71">
         <v>615</v>
       </c>
-      <c r="Q71" t="b">
-        <v>1</v>
-      </c>
-      <c r="R71">
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
         <v>-70</v>
       </c>
-      <c r="S71" t="b">
-        <f>ABS('n estimate'!$O31)-'n estimate'!$P31&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T71">
+      <c r="R71" t="b">
+        <f>ABS('n estimate'!$N31)-'n estimate'!$O31&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S71">
         <v>-41</v>
       </c>
-      <c r="U71" s="33">
+      <c r="T71" s="33">
         <v>1.0993717215589127</v>
       </c>
-      <c r="V71">
+      <c r="U71">
         <f>D86</f>
         <v>2.4164602120304619</v>
       </c>
+      <c r="V71">
+        <f>ABS(J71-L71)</f>
+        <v>1682.6738333308622</v>
+      </c>
       <c r="W71">
-        <f t="shared" si="50"/>
-        <v>1682.6738333308622</v>
-      </c>
-      <c r="X71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="15"/>
         <v>64.938163157621162</v>
       </c>
-      <c r="Y71" s="34">
-        <f t="shared" si="53"/>
+      <c r="X71" s="34">
+        <f>ABS(J71-W71)</f>
         <v>14105.061836842378</v>
       </c>
-      <c r="Z71" s="34">
-        <f t="shared" si="52"/>
-        <v>420210.46732499922</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>162</v>
       </c>
@@ -37592,69 +37042,61 @@
         <v>-324977.11831615499</v>
       </c>
       <c r="J72">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>24220</v>
       </c>
-      <c r="K72" s="34">
-        <f t="shared" si="46"/>
-        <v>3527611.3594010607</v>
+      <c r="K72">
+        <f>-(Q72-S72)/(10*LOG10(J72/1000))</f>
+        <v>2.8175645611767175</v>
       </c>
       <c r="L72">
-        <f t="shared" si="47"/>
-        <v>2.8175645611767175</v>
+        <f>1000*10^((S72-Q72)/(10*D$86))</f>
+        <v>41108.438529540086</v>
       </c>
       <c r="M72">
-        <f t="shared" si="48"/>
-        <v>41108.438529540086</v>
+        <v>30250</v>
       </c>
       <c r="N72">
-        <v>30250</v>
+        <f>ROUND(IF(P72,M72-J72,0),1)</f>
+        <v>6030</v>
       </c>
       <c r="O72">
-        <f t="shared" si="49"/>
-        <v>6030</v>
-      </c>
-      <c r="P72">
         <v>660</v>
       </c>
-      <c r="Q72" t="b">
-        <v>1</v>
-      </c>
-      <c r="R72">
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
         <v>-80</v>
       </c>
-      <c r="S72" t="b">
-        <f>ABS('n estimate'!$O35)-'n estimate'!$P35&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T72">
+      <c r="R72" t="b">
+        <f>ABS('n estimate'!$N35)-'n estimate'!$O35&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S72">
         <v>-41</v>
       </c>
-      <c r="U72" s="33">
+      <c r="T72" s="33">
         <v>1.0993717215589127</v>
       </c>
-      <c r="V72">
+      <c r="U72">
         <f>D86</f>
         <v>2.4164602120304619</v>
       </c>
+      <c r="V72">
+        <f>ABS(J72-L72)</f>
+        <v>16888.438529540086</v>
+      </c>
       <c r="W72">
-        <f t="shared" si="50"/>
-        <v>16888.438529540086</v>
-      </c>
-      <c r="X72">
-        <f t="shared" si="51"/>
+        <f t="shared" si="15"/>
         <v>273.84196342643634</v>
       </c>
-      <c r="Y72" s="34">
-        <f t="shared" si="53"/>
+      <c r="X72" s="34">
+        <f>ABS(J72-W72)</f>
         <v>23946.158036573564</v>
       </c>
-      <c r="Z72" s="34">
-        <f t="shared" si="52"/>
-        <v>3503391.3594010607</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>187</v>
       </c>
@@ -37683,69 +37125,61 @@
         <v>-324977.11831615499</v>
       </c>
       <c r="J73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>30972</v>
       </c>
-      <c r="K73" s="34">
-        <f t="shared" si="46"/>
-        <v>15282979.950566811</v>
+      <c r="K73">
+        <f>-(Q73-S73)/(10*LOG10(J73/1000))</f>
+        <v>3.0852413610643539</v>
       </c>
       <c r="L73">
-        <f t="shared" si="47"/>
-        <v>3.0852413610643539</v>
+        <f>1000*10^((S73-Q73)/(10*D$86))</f>
+        <v>80096.013365521299</v>
       </c>
       <c r="M73">
-        <f t="shared" si="48"/>
-        <v>80096.013365521299</v>
+        <v>37187</v>
       </c>
       <c r="N73">
-        <v>37187</v>
+        <f>ROUND(IF(P73,M73-J73,0),1)</f>
+        <v>6215</v>
       </c>
       <c r="O73">
-        <f t="shared" si="49"/>
-        <v>6215</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="b">
-        <v>1</v>
-      </c>
-      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
         <v>-87</v>
       </c>
-      <c r="S73" t="b">
-        <f>ABS('n estimate'!$O41)-'n estimate'!$P41&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T73">
+      <c r="R73" t="b">
+        <f>ABS('n estimate'!$N41)-'n estimate'!$O41&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S73">
         <v>-41</v>
       </c>
-      <c r="U73" s="33">
+      <c r="T73" s="33">
         <v>1.0993717215589127</v>
       </c>
-      <c r="V73">
+      <c r="U73">
         <f>D86</f>
         <v>2.4164602120304619</v>
       </c>
+      <c r="V73">
+        <f>ABS(J73-L73)</f>
+        <v>49124.013365521299</v>
+      </c>
       <c r="W73">
-        <f t="shared" si="50"/>
-        <v>49124.013365521299</v>
-      </c>
-      <c r="X73">
-        <f t="shared" si="51"/>
+        <f t="shared" si="15"/>
         <v>749.89420933245651</v>
       </c>
-      <c r="Y73" s="34">
-        <f t="shared" si="53"/>
+      <c r="X73" s="34">
+        <f>ABS(J73-W73)</f>
         <v>30222.105790667545</v>
       </c>
-      <c r="Z73" s="34">
-        <f t="shared" si="52"/>
-        <v>15252007.950566811</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>207</v>
       </c>
@@ -37774,69 +37208,61 @@
         <v>-324977.11831615499</v>
       </c>
       <c r="J74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>35974</v>
       </c>
-      <c r="K74" s="34">
-        <f t="shared" si="46"/>
-        <v>2320377.4892419321</v>
+      <c r="K74">
+        <f>-(Q74-S74)/(10*LOG10(J74/1000))</f>
+        <v>2.377909253388176</v>
       </c>
       <c r="L74">
-        <f t="shared" si="47"/>
-        <v>2.377909253388176</v>
+        <f>1000*10^((S74-Q74)/(10*D$86))</f>
+        <v>33975.45562010914</v>
       </c>
       <c r="M74">
-        <f t="shared" si="48"/>
-        <v>33975.45562010914</v>
+        <v>36562</v>
       </c>
       <c r="N74">
-        <v>36562</v>
+        <f>ROUND(IF(P74,M74-J74,0),1)</f>
+        <v>588</v>
       </c>
       <c r="O74">
-        <f t="shared" si="49"/>
-        <v>588</v>
-      </c>
-      <c r="P74">
         <v>495</v>
       </c>
-      <c r="Q74" t="b">
-        <v>1</v>
-      </c>
-      <c r="R74">
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
         <v>-78</v>
       </c>
-      <c r="S74" t="b">
-        <f>ABS('n estimate'!$O45)-'n estimate'!$P45&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="T74">
+      <c r="R74" t="b">
+        <f>ABS('n estimate'!$N45)-'n estimate'!$O45&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="S74">
         <v>-41</v>
       </c>
-      <c r="U74" s="33">
+      <c r="T74" s="33">
         <v>1.0993717215589127</v>
       </c>
-      <c r="V74">
+      <c r="U74">
         <f>D86</f>
         <v>2.4164602120304619</v>
       </c>
+      <c r="V74">
+        <f>ABS(J74-L74)</f>
+        <v>1998.54437989086</v>
+      </c>
       <c r="W74">
-        <f t="shared" si="50"/>
-        <v>1998.54437989086</v>
-      </c>
-      <c r="X74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="15"/>
         <v>205.35250264571462</v>
       </c>
-      <c r="Y74" s="34">
-        <f t="shared" si="53"/>
+      <c r="X74" s="34">
+        <f>ABS(J74-W74)</f>
         <v>35768.647497354286</v>
       </c>
-      <c r="Z74" s="34">
-        <f t="shared" si="52"/>
-        <v>2284403.4892419321</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>232</v>
       </c>
@@ -37865,234 +37291,205 @@
         <v>-324977.11831615499</v>
       </c>
       <c r="J75">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>28709</v>
       </c>
-      <c r="K75" s="34">
-        <f t="shared" si="46"/>
-        <v>23234328.866348039</v>
+      <c r="K75">
+        <f>-(Q75-S75)/(10*LOG10(J75/1000))</f>
+        <v>3.2921402788237568</v>
       </c>
       <c r="L75">
-        <f t="shared" si="47"/>
-        <v>3.2921402788237568</v>
+        <f>1000*10^((S75-Q75)/(10*D$86))</f>
+        <v>96911.78475172352</v>
       </c>
       <c r="M75">
-        <f t="shared" si="48"/>
-        <v>96911.78475172352</v>
+        <v>37625</v>
       </c>
       <c r="N75">
-        <v>37625</v>
+        <f>ROUND(IF(P75,M75-J75,0),1)</f>
+        <v>8916</v>
       </c>
       <c r="O75">
-        <f t="shared" si="49"/>
-        <v>8916</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="b">
-        <v>1</v>
-      </c>
-      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
         <v>-89</v>
       </c>
-      <c r="S75" t="b">
-        <f>ABS('n estimate'!$O50)-'n estimate'!$P50&lt;0</f>
-        <v>1</v>
-      </c>
-      <c r="T75">
+      <c r="R75" t="b">
+        <f>ABS('n estimate'!$N50)-'n estimate'!$O50&lt;0</f>
+        <v>1</v>
+      </c>
+      <c r="S75">
         <v>-41</v>
       </c>
-      <c r="U75" s="33">
+      <c r="T75" s="33">
         <v>1.0993717215589127</v>
       </c>
-      <c r="V75">
+      <c r="U75">
         <f>D86</f>
         <v>2.4164602120304619</v>
       </c>
+      <c r="V75">
+        <f>ABS(J75-L75)</f>
+        <v>68202.78475172352</v>
+      </c>
       <c r="W75">
-        <f t="shared" si="50"/>
-        <v>68202.78475172352</v>
-      </c>
-      <c r="X75">
-        <f t="shared" si="51"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
-      <c r="Y75" s="34">
-        <f t="shared" si="53"/>
+      <c r="X75" s="34">
+        <f>ABS(J75-W75)</f>
         <v>27709</v>
       </c>
-      <c r="Z75" s="34">
-        <f t="shared" si="52"/>
-        <v>23205619.866348039</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
-      </c>
-      <c r="H80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>17</v>
       </c>
       <c r="D81">
-        <f>AVERAGE($L$2:$L$11)</f>
+        <f>AVERAGE($K$2:$K$11)</f>
         <v>2.2851916131973722</v>
       </c>
-      <c r="E81" s="35">
-        <v>1.2473015335197626</v>
+      <c r="E81">
+        <f>ROUND(MEDIAN($K$2:$K$11),3)</f>
+        <v>2.3820000000000001</v>
       </c>
       <c r="F81">
-        <f>ROUND(MEDIAN($L$2:$L$11),3)</f>
-        <v>2.3820000000000001</v>
+        <f>ROUND(MIN($K$2:$K$11),3)</f>
+        <v>1.631</v>
       </c>
       <c r="G81">
-        <f>ROUND(MIN($L$2:$L$11),3)</f>
-        <v>1.631</v>
-      </c>
-      <c r="H81">
-        <f>ROUND(MAX($L$2:$L$11),3)</f>
+        <f>ROUND(MAX($K$2:$K$11),3)</f>
         <v>2.95</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>31</v>
       </c>
       <c r="D82">
-        <f>AVERAGE($L$13:$L$26)</f>
+        <f>AVERAGE($K$13:$K$26)</f>
         <v>2.7934245603185177</v>
       </c>
-      <c r="E82" s="35">
-        <v>1.1654970933996334</v>
+      <c r="E82">
+        <f>ROUND(MEDIAN($K$13:$K$26),3)</f>
+        <v>2.9780000000000002</v>
       </c>
       <c r="F82">
-        <f>ROUND(MEDIAN($L$13:$L$26),3)</f>
-        <v>2.9780000000000002</v>
+        <f>ROUND(MIN($K$13:$K$26),3)</f>
+        <v>1.468</v>
       </c>
       <c r="G82">
-        <f>ROUND(MIN($L$13:$L$26),3)</f>
-        <v>1.468</v>
-      </c>
-      <c r="H82">
-        <f>ROUND(MAX($L$13:$L$26),3)</f>
+        <f>ROUND(MAX($K$13:$K$26),3)</f>
         <v>3.6869999999999998</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>30</v>
       </c>
       <c r="D83">
-        <f>AVERAGE($L$28:$L$38)</f>
+        <f>AVERAGE($K$28:$K$38)</f>
         <v>2.7917380713255842</v>
       </c>
-      <c r="E83" s="35">
-        <v>1.0701624198831508</v>
+      <c r="E83">
+        <f>ROUND(MEDIAN($K$28:$K$38),3)</f>
+        <v>2.8029999999999999</v>
       </c>
       <c r="F83">
-        <f>ROUND(MEDIAN($L$28:$L$38),3)</f>
-        <v>2.8029999999999999</v>
+        <f>ROUND(MIN($K$28:$K$38),3)</f>
+        <v>2.0990000000000002</v>
       </c>
       <c r="G83">
-        <f>ROUND(MIN($L$28:$L$38),3)</f>
-        <v>2.0990000000000002</v>
-      </c>
-      <c r="H83">
-        <f>ROUND(MAX($L$28:$L$38),3)</f>
+        <f>ROUND(MAX($K$28:$K$38),3)</f>
         <v>3.9609999999999999</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>16</v>
       </c>
       <c r="D84">
-        <f>AVERAGE($L$40:$L$51)</f>
+        <f>AVERAGE($K$40:$K$51)</f>
         <v>2.8610918957761839</v>
       </c>
-      <c r="E84" s="35">
-        <v>0.93853514883930855</v>
+      <c r="E84">
+        <f>ROUND(MEDIAN($K$40:$K$51),3)</f>
+        <v>2.911</v>
       </c>
       <c r="F84">
-        <f>ROUND(MEDIAN($L$40:$L$51),3)</f>
-        <v>2.911</v>
+        <f>ROUND(MIN($K$40:$K$51),3)</f>
+        <v>1.756</v>
       </c>
       <c r="G84">
-        <f>ROUND(MIN($L$40:$L$51),3)</f>
-        <v>1.756</v>
-      </c>
-      <c r="H84">
-        <f>ROUND(MAX($L$40:$L$51),3)</f>
+        <f>ROUND(MAX($K$40:$K$51),3)</f>
         <v>4.0259999999999998</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>28</v>
       </c>
       <c r="D85">
-        <f>AVERAGE($L$53:$L$63)</f>
+        <f>AVERAGE($K$53:$K$63)</f>
         <v>2.4998015345946274</v>
       </c>
-      <c r="E85" s="35">
-        <v>1.4954432495091083</v>
+      <c r="E85">
+        <f>ROUND(MEDIAN($K$53:$K$63),3)</f>
+        <v>2.46</v>
       </c>
       <c r="F85">
-        <f>ROUND(MEDIAN($L$53:$L$63),3)</f>
-        <v>2.46</v>
+        <f>ROUND(MIN($K$53:$K$63),3)</f>
+        <v>1.8420000000000001</v>
       </c>
       <c r="G85">
-        <f>ROUND(MIN($L$53:$L$63),3)</f>
-        <v>1.8420000000000001</v>
-      </c>
-      <c r="H85">
-        <f>ROUND(MAX($L$53:$L$63),3)</f>
+        <f>ROUND(MAX($K$53:$K$63),3)</f>
         <v>3.5209999999999999</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>29</v>
       </c>
       <c r="D86">
-        <f>AVERAGE($L$65:$L$75)</f>
+        <f>AVERAGE($K$65:$K$75)</f>
         <v>2.4164602120304619</v>
       </c>
-      <c r="E86" s="35">
-        <v>1.0993717215589127</v>
+      <c r="E86">
+        <f>ROUND(MEDIAN($K$65:$K$75),3)</f>
+        <v>2.5190000000000001</v>
       </c>
       <c r="F86">
-        <f>ROUND(MEDIAN($L$65:$L$75),3)</f>
-        <v>2.5190000000000001</v>
+        <f>ROUND(MIN($K$65:$K$75),3)</f>
+        <v>0.91100000000000003</v>
       </c>
       <c r="G86">
-        <f>ROUND(MIN($L$65:$L$75),3)</f>
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="H86">
-        <f>ROUND(MAX($L$65:$L$75),3)</f>
+        <f>ROUND(MAX($K$65:$K$75),3)</f>
         <v>3.2919999999999998</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P361">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O361">
     <sortCondition ref="C2:C361"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
